--- a/CodeSystem-CSOcupacionesDet.xlsx
+++ b/CodeSystem-CSOcupacionesDet.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hospitallaflorida.cl/fhir/hlfhosp/CodeSystem/CSOcupacionesDet</t>
+    <t>https://hospitallaflorida.cl/fhir/hlfhosp/CodeSystem/CSOcupacionesDet</t>
   </si>
   <si>
     <t>Version</t>
@@ -2921,10 +2921,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/CodeSystem-CSOcupacionesDet.xlsx
+++ b/CodeSystem-CSOcupacionesDet.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -147,31 +147,31 @@
     <t>0210</t>
   </si>
   <si>
-    <t xml:space="preserve">Suboficiales de las Fuerzas Armadas	</t>
+    <t>Suboficiales de las Fuerzas Armadas</t>
   </si>
   <si>
     <t>0310</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros miembros de las Fuerzas Armadas	</t>
+    <t>Otros miembros de las Fuerzas Armadas</t>
   </si>
   <si>
     <t>1111</t>
   </si>
   <si>
-    <t xml:space="preserve">Miembros del poder ejecutivo y legislativo	</t>
+    <t>Miembros del poder ejecutivo y legislativo</t>
   </si>
   <si>
     <t>1112</t>
   </si>
   <si>
-    <t xml:space="preserve">Personal directivo de la administración pública	</t>
+    <t>Personal directivo de la administración pública</t>
   </si>
   <si>
     <t>1113</t>
   </si>
   <si>
-    <t xml:space="preserve">Jefes de comunidades indígenas	</t>
+    <t>Jefes de comunidades indígenas</t>
   </si>
   <si>
     <t>1114</t>
@@ -183,2623 +183,2623 @@
     <t>1120</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores y gerentes generales de empresas	</t>
+    <t>Directores y gerentes generales de empresas</t>
   </si>
   <si>
     <t>1211</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de finanzas 	</t>
+    <t>Directores, gerentes y administradores de finanzas</t>
   </si>
   <si>
     <t>1212</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de recursos humanos	</t>
+    <t>Directores, gerentes y administradores de recursos humanos</t>
   </si>
   <si>
     <t>1213</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de políticas empresariales y planificación	</t>
+    <t>Directores, gerentes y administradores de políticas empresariales y planificación</t>
   </si>
   <si>
     <t>1219</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros directores, gerentes y administradores de servicios administrativos no clasificados previamente	</t>
+    <t>Otros directores, gerentes y administradores de servicios administrativos no clasificados previamente</t>
   </si>
   <si>
     <t>1221</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores comercialización	</t>
+    <t>Directores, gerentes y administradores comercialización</t>
   </si>
   <si>
     <t>1222</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de publicidad y relaciones públicas	</t>
+    <t>Directores, gerentes y administradores de publicidad y relaciones públicas</t>
   </si>
   <si>
     <t>1223</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de investigación y desarrollo	</t>
+    <t>Directores, gerentes y administradores de investigación y desarrollo</t>
   </si>
   <si>
     <t>1311</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de producción y operaciones agropecuarias y de silvicultura	</t>
+    <t>Directores, gerentes y administradores de producción y operaciones agropecuarias y de silvicultura</t>
   </si>
   <si>
     <t>1312</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de producción y operaciones de acuicultura y pesca	</t>
+    <t>Directores, gerentes y administradores de producción y operaciones de acuicultura y pesca</t>
   </si>
   <si>
     <t>1321</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de industrias manufactureras	</t>
+    <t>Directores, gerentes y administradores de industrias manufactureras</t>
   </si>
   <si>
     <t>1322</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de explotaciones mineras	</t>
+    <t>Directores, gerentes y administradores de explotaciones mineras</t>
   </si>
   <si>
     <t>1323</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de construcción	</t>
+    <t>Directores, gerentes y administradores de construcción</t>
   </si>
   <si>
     <t>1324</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de empresas de abastecimiento, almacenamiento y distribución	</t>
+    <t>Directores, gerentes y administradores de empresas de abastecimiento, almacenamiento y distribución</t>
   </si>
   <si>
     <t>1330</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de servicios de tecnología de la información y las comunicaciones	</t>
+    <t>Directores, gerentes y administradores de servicios de tecnología de la información y las comunicaciones</t>
   </si>
   <si>
     <t>1341</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de servicios de cuidados infantiles	</t>
+    <t>Directores, gerentes y administradores de servicios de cuidados infantiles</t>
   </si>
   <si>
     <t>1342</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de servicios de salud	</t>
+    <t>Directores, gerentes y administradores de servicios de salud</t>
   </si>
   <si>
     <t>1343</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de servicios de cuidado de adultos mayores	</t>
+    <t>Directores, gerentes y administradores de servicios de cuidado de adultos mayores</t>
   </si>
   <si>
     <t>1344</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, generales y administradores de servicios de bienestar social	</t>
+    <t>Directores, generales y administradores de servicios de bienestar social</t>
   </si>
   <si>
     <t>1345</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de servicios de educación	</t>
+    <t>Directores, gerentes y administradores de servicios de educación</t>
   </si>
   <si>
     <t>1346</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de servicios financieros	</t>
+    <t>Directores, gerentes y administradores de servicios financieros</t>
   </si>
   <si>
     <t>1349</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de otros servicios profesionales no clasificados previamente	</t>
+    <t>Directores, gerentes y administradores de otros servicios profesionales no clasificados previamente</t>
   </si>
   <si>
     <t>1411</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de hoteles	</t>
+    <t>Directores, gerentes y administradores de hoteles</t>
   </si>
   <si>
     <t>1412</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de restaurantes	</t>
+    <t>Directores, gerentes y administradores de restaurantes</t>
   </si>
   <si>
     <t>1420</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de comercios al por mayor y al por menor	</t>
+    <t>Directores, gerentes y administradores de comercios al por mayor y al por menor</t>
   </si>
   <si>
     <t>1431</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de centros deportivos, de esparcimiento y culturales	</t>
+    <t>Directores, gerentes y administradores de centros deportivos, de esparcimiento y culturales</t>
   </si>
   <si>
     <t>1439</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de otros servicios no clasificados previamente	</t>
+    <t>Directores, gerentes y administradores de otros servicios no clasificados previamente</t>
   </si>
   <si>
     <t>2111</t>
   </si>
   <si>
-    <t xml:space="preserve">Físicos y astrónomos	</t>
+    <t>Físicos y astrónomos</t>
   </si>
   <si>
     <t>2112</t>
   </si>
   <si>
-    <t xml:space="preserve">Meteorólogos	</t>
+    <t>Meteorólogos</t>
   </si>
   <si>
     <t>2113</t>
   </si>
   <si>
-    <t xml:space="preserve">Químicos	</t>
+    <t>Químicos</t>
   </si>
   <si>
     <t>2114</t>
   </si>
   <si>
-    <t xml:space="preserve">Geólogos y geofísicos	</t>
+    <t>Geólogos y geofísicos</t>
   </si>
   <si>
     <t>2120</t>
   </si>
   <si>
-    <t xml:space="preserve">Matemáticos y estadísticos	</t>
+    <t>Matemáticos y estadísticos</t>
   </si>
   <si>
     <t>2131</t>
   </si>
   <si>
-    <t xml:space="preserve">Biólogos, botánicos, zoólogos, genetista y farmacólogos	</t>
+    <t>Biólogos, botánicos, zoólogos, genetista y farmacólogos</t>
   </si>
   <si>
     <t>2132</t>
   </si>
   <si>
-    <t xml:space="preserve">Agrónomos y profesionales del ámbito forestal y pesquero	</t>
+    <t>Agrónomos y profesionales del ámbito forestal y pesquero</t>
   </si>
   <si>
     <t>2133</t>
   </si>
   <si>
-    <t xml:space="preserve">Profesionales de la protección medioambiental	</t>
+    <t>Profesionales de la protección medioambiental</t>
   </si>
   <si>
     <t>2134</t>
   </si>
   <si>
-    <t xml:space="preserve">Bioquímicos	</t>
+    <t>Bioquímicos</t>
   </si>
   <si>
     <t>2141</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingenieros industriales y de producción	</t>
+    <t>Ingenieros industriales y de producción</t>
   </si>
   <si>
     <t>2142</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingenieros civiles, ingenieros en construcción y constructores civiles	</t>
+    <t>Ingenieros civiles, ingenieros en construcción y constructores civiles</t>
   </si>
   <si>
     <t>2143</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingenieros mediambientales	</t>
+    <t>Ingenieros mediambientales</t>
   </si>
   <si>
     <t>2144</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingenieros mecánicos	</t>
+    <t>Ingenieros mecánicos</t>
   </si>
   <si>
     <t>2145</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingenieros químicos	</t>
+    <t>Ingenieros químicos</t>
   </si>
   <si>
     <t>2146</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingenieros en minas y metalúrgicos	</t>
+    <t>Ingenieros en minas y metalúrgicos</t>
   </si>
   <si>
     <t>2147</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingenieros biomédicos	</t>
+    <t>Ingenieros biomédicos</t>
   </si>
   <si>
     <t>2149</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros ingenieros no clasificados previamente	</t>
+    <t>Otros ingenieros no clasificados previamente</t>
   </si>
   <si>
     <t>2151</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingenieros eléctricos	</t>
+    <t>Ingenieros eléctricos</t>
   </si>
   <si>
     <t>2152</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingenieros electrónicos	</t>
+    <t>Ingenieros electrónicos</t>
   </si>
   <si>
     <t>2153</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingenieros en telecomunicaciones	</t>
+    <t>Ingenieros en telecomunicaciones</t>
   </si>
   <si>
     <t>2161</t>
   </si>
   <si>
-    <t xml:space="preserve">Arquitectos 	</t>
+    <t>Arquitectos</t>
   </si>
   <si>
     <t>2162</t>
   </si>
   <si>
-    <t xml:space="preserve">Arquitectos paisajistas	</t>
+    <t>Arquitectos paisajistas</t>
   </si>
   <si>
     <t>2163</t>
   </si>
   <si>
-    <t xml:space="preserve">Diseñadores de productos y de vestuario	</t>
+    <t>Diseñadores de productos y de vestuario</t>
   </si>
   <si>
     <t>2164</t>
   </si>
   <si>
-    <t xml:space="preserve">Urbanistas e ingenieros de transporte y tránsito	</t>
+    <t>Urbanistas e ingenieros de transporte y tránsito</t>
   </si>
   <si>
     <t>2165</t>
   </si>
   <si>
-    <t xml:space="preserve">Cartógrafos y agrimensores	</t>
+    <t>Cartógrafos y agrimensores</t>
   </si>
   <si>
     <t>2166</t>
   </si>
   <si>
-    <t xml:space="preserve">Diseñadores gráficos y de multimedia	</t>
+    <t>Diseñadores gráficos y de multimedia</t>
   </si>
   <si>
     <t>2211</t>
   </si>
   <si>
-    <t xml:space="preserve">Médicos generales  	</t>
+    <t>Médicos generales</t>
   </si>
   <si>
     <t>2212</t>
   </si>
   <si>
-    <t xml:space="preserve">Médicos especialistas	</t>
+    <t>Médicos especialistas</t>
   </si>
   <si>
     <t>2221</t>
   </si>
   <si>
-    <t xml:space="preserve">Enfermeros profesionales	</t>
+    <t>Enfermeros profesionales</t>
   </si>
   <si>
     <t>2222</t>
   </si>
   <si>
-    <t xml:space="preserve">Profesionales de matronería	</t>
+    <t>Profesionales de matronería</t>
   </si>
   <si>
     <t>2230</t>
   </si>
   <si>
-    <t xml:space="preserve">Veterinarios	</t>
+    <t>Veterinarios</t>
   </si>
   <si>
     <t>2241</t>
   </si>
   <si>
-    <t xml:space="preserve">Dentistas  	</t>
+    <t>Dentistas</t>
   </si>
   <si>
     <t>2242</t>
   </si>
   <si>
-    <t xml:space="preserve">Químicos farmaceúticos	</t>
+    <t>Químicos farmaceúticos</t>
   </si>
   <si>
     <t>2243</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingenieros en prevención de riesgos y otros profesionales de la seguridad e higiene laboral y ambiental	</t>
+    <t>Ingenieros en prevención de riesgos y otros profesionales de la seguridad e higiene laboral y ambiental</t>
   </si>
   <si>
     <t>2244</t>
   </si>
   <si>
-    <t xml:space="preserve">Kinesiólogos	</t>
+    <t>Kinesiólogos</t>
   </si>
   <si>
     <t>2245</t>
   </si>
   <si>
-    <t xml:space="preserve">Dietistas y nutricionistas	</t>
+    <t>Dietistas y nutricionistas</t>
   </si>
   <si>
     <t>2246</t>
   </si>
   <si>
-    <t xml:space="preserve">Fonoaudiólogos	</t>
+    <t>Fonoaudiólogos</t>
   </si>
   <si>
     <t>2247</t>
   </si>
   <si>
-    <t xml:space="preserve">Tecnólogos médicos	</t>
+    <t>Tecnólogos médicos</t>
   </si>
   <si>
     <t>2248</t>
   </si>
   <si>
-    <t xml:space="preserve">Terapeutas ocupacionales	</t>
+    <t>Terapeutas ocupacionales</t>
   </si>
   <si>
     <t>2249</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros profesionales de la salud no clasificados previamente	</t>
+    <t>Otros profesionales de la salud no clasificados previamente</t>
   </si>
   <si>
     <t>2310</t>
   </si>
   <si>
-    <t xml:space="preserve">Profesores de la educación superior	</t>
+    <t>Profesores de la educación superior</t>
   </si>
   <si>
     <t>2320</t>
   </si>
   <si>
-    <t xml:space="preserve">Profesores de educación media técnico profesional (especialidades) y de formación laboral 	</t>
+    <t>Profesores de educación media técnico profesional (especialidades) y de formación laboral</t>
   </si>
   <si>
     <t>2330</t>
   </si>
   <si>
-    <t xml:space="preserve">Profesores de educación media  	</t>
+    <t>Profesores de educación media</t>
   </si>
   <si>
     <t>2341</t>
   </si>
   <si>
-    <t xml:space="preserve">Profesores de educación básica	</t>
+    <t>Profesores de educación básica</t>
   </si>
   <si>
     <t>2342</t>
   </si>
   <si>
-    <t xml:space="preserve">Educadores de párvulos	</t>
+    <t>Educadores de párvulos</t>
   </si>
   <si>
     <t>2351</t>
   </si>
   <si>
-    <t xml:space="preserve">Especialistas en métodos pedagógicos 	</t>
+    <t>Especialistas en métodos pedagógicos</t>
   </si>
   <si>
     <t>2352</t>
   </si>
   <si>
-    <t xml:space="preserve">Educadores para necesidades especiales	</t>
+    <t>Educadores para necesidades especiales</t>
   </si>
   <si>
     <t>2353</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros profesores de idiomas	</t>
+    <t>Otros profesores de idiomas</t>
   </si>
   <si>
     <t>2354</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros profesores de música	</t>
+    <t>Otros profesores de música</t>
   </si>
   <si>
     <t>2355</t>
   </si>
   <si>
-    <t xml:space="preserve">otros profesores de artes	</t>
+    <t>otros profesores de artes</t>
   </si>
   <si>
     <t>2356</t>
   </si>
   <si>
-    <t xml:space="preserve">Instructores en tecnologías de la información	</t>
+    <t>Instructores en tecnologías de la información</t>
   </si>
   <si>
     <t>2359</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros profesionales de la educación no clasificados previamente	</t>
+    <t>Otros profesionales de la educación no clasificados previamente</t>
   </si>
   <si>
     <t>2411</t>
   </si>
   <si>
-    <t xml:space="preserve">Contadores  	</t>
+    <t>Contadores</t>
   </si>
   <si>
     <t>2412</t>
   </si>
   <si>
-    <t xml:space="preserve">Asesores financieros y en inversiones	</t>
+    <t>Asesores financieros y en inversiones</t>
   </si>
   <si>
     <t>2413</t>
   </si>
   <si>
-    <t xml:space="preserve">Analistas financieros	</t>
+    <t>Analistas financieros</t>
   </si>
   <si>
     <t>2421</t>
   </si>
   <si>
-    <t xml:space="preserve">Especialistas y asesores de gestión 	</t>
+    <t>Especialistas y asesores de gestión</t>
   </si>
   <si>
     <t>2422</t>
   </si>
   <si>
-    <t xml:space="preserve">Especialistas en políticas de administración	</t>
+    <t>Especialistas en políticas de administración</t>
   </si>
   <si>
     <t>2423</t>
   </si>
   <si>
-    <t xml:space="preserve">Especialistas en políticas y servicios de personal	</t>
+    <t>Especialistas en políticas y servicios de personal</t>
   </si>
   <si>
     <t>2424</t>
   </si>
   <si>
-    <t xml:space="preserve">Especialistas en formación del personal	</t>
+    <t>Especialistas en formación del personal</t>
   </si>
   <si>
     <t>2431</t>
   </si>
   <si>
-    <t xml:space="preserve">Profesionales de la publicidad y la comercialización	</t>
+    <t>Profesionales de la publicidad y la comercialización</t>
   </si>
   <si>
     <t>2432</t>
   </si>
   <si>
-    <t xml:space="preserve">Profesionales de las relaciones públicas	</t>
+    <t>Profesionales de las relaciones públicas</t>
   </si>
   <si>
     <t>2433</t>
   </si>
   <si>
-    <t xml:space="preserve">Profesionales de ventas técnicas y médicas (excluyendo las TIC)	</t>
+    <t>Profesionales de ventas técnicas y médicas (excluyendo las TIC)</t>
   </si>
   <si>
     <t>2434</t>
   </si>
   <si>
-    <t xml:space="preserve">Profesionales de ventas de tecnología de la información y las comunicaciones (TIC)	</t>
+    <t>Profesionales de ventas de tecnología de la información y las comunicaciones (TIC)</t>
   </si>
   <si>
     <t>2511</t>
   </si>
   <si>
-    <t xml:space="preserve">Analistas de sistemas	</t>
+    <t>Analistas de sistemas</t>
   </si>
   <si>
     <t>2512</t>
   </si>
   <si>
-    <t xml:space="preserve">Desarrolladores de software	</t>
+    <t>Desarrolladores de software</t>
   </si>
   <si>
     <t>2513</t>
   </si>
   <si>
-    <t xml:space="preserve">Desarrolladores web y multimedia	</t>
+    <t>Desarrolladores web y multimedia</t>
   </si>
   <si>
     <t>2514</t>
   </si>
   <si>
-    <t xml:space="preserve">Programadores de aplicaciones	</t>
+    <t>Programadores de aplicaciones</t>
   </si>
   <si>
     <t>2519</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros desarrolladores y analistas de software y multimedia no clasificados previamente	</t>
+    <t>Otros desarrolladores y analistas de software y multimedia no clasificados previamente</t>
   </si>
   <si>
     <t>2521</t>
   </si>
   <si>
-    <t xml:space="preserve">Diseñadores y administradores de bases de datos  	</t>
+    <t>Diseñadores y administradores de bases de datos</t>
   </si>
   <si>
     <t>2522</t>
   </si>
   <si>
-    <t xml:space="preserve">Administradores de sistemas	</t>
+    <t>Administradores de sistemas</t>
   </si>
   <si>
     <t>2523</t>
   </si>
   <si>
-    <t xml:space="preserve">Profesionales en redes de computadores	</t>
+    <t>Profesionales en redes de computadores</t>
   </si>
   <si>
     <t>2529</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros especialistas en bases de datos y en redes de computadores no clasificados previamente	</t>
+    <t>Otros especialistas en bases de datos y en redes de computadores no clasificados previamente</t>
   </si>
   <si>
     <t>2611</t>
   </si>
   <si>
-    <t xml:space="preserve">Abogados 	</t>
+    <t>Abogados</t>
   </si>
   <si>
     <t>2612</t>
   </si>
   <si>
-    <t xml:space="preserve">Jueces	</t>
+    <t>Jueces</t>
   </si>
   <si>
     <t>2619</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros profesionales del derecho no clasificados previamente	</t>
+    <t>Otros profesionales del derecho no clasificados previamente</t>
   </si>
   <si>
     <t>2621</t>
   </si>
   <si>
-    <t xml:space="preserve">Archivistas y curadores de museos	</t>
+    <t>Archivistas y curadores de museos</t>
   </si>
   <si>
     <t>2622</t>
   </si>
   <si>
-    <t xml:space="preserve">Bibliotecarios y documentalistas de archivos	</t>
+    <t>Bibliotecarios y documentalistas de archivos</t>
   </si>
   <si>
     <t>2631</t>
   </si>
   <si>
-    <t xml:space="preserve">Economistas 	</t>
+    <t>Economistas</t>
   </si>
   <si>
     <t>2632</t>
   </si>
   <si>
-    <t xml:space="preserve">Sociólogos, antropólogos, geógrafos y arqueólogos	</t>
+    <t>Sociólogos, antropólogos, geógrafos y arqueólogos</t>
   </si>
   <si>
     <t>2633</t>
   </si>
   <si>
-    <t xml:space="preserve">Filósofos, historiadores y especialistas en ciencias políticas	</t>
+    <t>Filósofos, historiadores y especialistas en ciencias políticas</t>
   </si>
   <si>
     <t>2634</t>
   </si>
   <si>
-    <t xml:space="preserve">Psicólogos	</t>
+    <t>Psicólogos</t>
   </si>
   <si>
     <t>2635</t>
   </si>
   <si>
-    <t xml:space="preserve">Profesionales del trabajo social	</t>
+    <t>Profesionales del trabajo social</t>
   </si>
   <si>
     <t>2636</t>
   </si>
   <si>
-    <t xml:space="preserve">Profesionales religiosos	</t>
+    <t>Profesionales religiosos</t>
   </si>
   <si>
     <t>2641</t>
   </si>
   <si>
-    <t xml:space="preserve">Autores y otros escritores	</t>
+    <t>Autores y otros escritores</t>
   </si>
   <si>
     <t>2642</t>
   </si>
   <si>
-    <t xml:space="preserve">Periodistas	</t>
+    <t>Periodistas</t>
   </si>
   <si>
     <t>2643</t>
   </si>
   <si>
-    <t xml:space="preserve">Traductores, intérpretes de lengua de señas y lingüistas	</t>
+    <t>Traductores, intérpretes de lengua de señas y lingüistas</t>
   </si>
   <si>
     <t>2651</t>
   </si>
   <si>
-    <t xml:space="preserve">Artistas de artes plásticas	</t>
+    <t>Artistas de artes plásticas</t>
   </si>
   <si>
     <t>2652</t>
   </si>
   <si>
-    <t xml:space="preserve">Músicos, cantantes y compositores	</t>
+    <t>Músicos, cantantes y compositores</t>
   </si>
   <si>
     <t>2653</t>
   </si>
   <si>
-    <t xml:space="preserve">Bailarines y coreógrafos	</t>
+    <t>Bailarines y coreógrafos</t>
   </si>
   <si>
     <t>2654</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores de cine, radio y teatro	</t>
+    <t>Directores de cine, radio y teatro</t>
   </si>
   <si>
     <t>2655</t>
   </si>
   <si>
-    <t xml:space="preserve">Actores	</t>
+    <t>Actores</t>
   </si>
   <si>
     <t>2656</t>
   </si>
   <si>
-    <t xml:space="preserve">Locutores de radio, televisión y otros medios de comunicación	</t>
+    <t>Locutores de radio, televisión y otros medios de comunicación</t>
   </si>
   <si>
     <t>2659</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros artistas creativos e interpretativos no clasificados previamente	</t>
+    <t>Otros artistas creativos e interpretativos no clasificados previamente</t>
   </si>
   <si>
     <t>3111</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos en ciencias físicas y químicas	</t>
+    <t>Técnicos en ciencias físicas y químicas</t>
   </si>
   <si>
     <t>3112</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos en construcción y topógrafos	</t>
+    <t>Técnicos en construcción y topógrafos</t>
   </si>
   <si>
     <t>3113</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos en electricidad	</t>
+    <t>Técnicos en electricidad</t>
   </si>
   <si>
     <t>3114</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos en electrónica	</t>
+    <t>Técnicos en electrónica</t>
   </si>
   <si>
     <t>3115</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos en ingeniería mecánica	</t>
+    <t>Técnicos en ingeniería mecánica</t>
   </si>
   <si>
     <t>3116</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos en química industrial	</t>
+    <t>Técnicos en química industrial</t>
   </si>
   <si>
     <t>3117</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos en ingeniería de minas y metalurgia	</t>
+    <t>Técnicos en ingeniería de minas y metalurgia</t>
   </si>
   <si>
     <t>3118</t>
   </si>
   <si>
-    <t xml:space="preserve">Delineantes y dibujantes técnicos	</t>
+    <t>Delineantes y dibujantes técnicos</t>
   </si>
   <si>
     <t>3119</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros técnicos en ciencias físicas y en ingeniería no clasificados previamente	</t>
+    <t>Otros técnicos en ciencias físicas y en ingeniería no clasificados previamente</t>
   </si>
   <si>
     <t>3121</t>
   </si>
   <si>
-    <t xml:space="preserve">Supervisores de minas  	</t>
+    <t>Supervisores de minas</t>
   </si>
   <si>
     <t>3122</t>
   </si>
   <si>
-    <t xml:space="preserve">Supervisores de industrias manufactureras	</t>
+    <t>Supervisores de industrias manufactureras</t>
   </si>
   <si>
     <t>3123</t>
   </si>
   <si>
-    <t xml:space="preserve">Supervisores de la construcción	</t>
+    <t>Supervisores de la construcción</t>
   </si>
   <si>
     <t>3131</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de instalaciones de producción de energía	</t>
+    <t>Operadores de instalaciones de producción de energía</t>
   </si>
   <si>
     <t>3132</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de incineradores y de instalaciones de tratamiento de agua	</t>
+    <t>Operadores de incineradores y de instalaciones de tratamiento de agua</t>
   </si>
   <si>
     <t>3133</t>
   </si>
   <si>
-    <t xml:space="preserve">Controladores de instalaciones de procesamiento de productos químicos	</t>
+    <t>Controladores de instalaciones de procesamiento de productos químicos</t>
   </si>
   <si>
     <t>3134</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de instalaciones de refinación de petróleo y gas natural	</t>
+    <t>Operadores de instalaciones de refinación de petróleo y gas natural</t>
   </si>
   <si>
     <t>3135</t>
   </si>
   <si>
-    <t xml:space="preserve">Controladores de procesos de producción de metales	</t>
+    <t>Controladores de procesos de producción de metales</t>
   </si>
   <si>
     <t>3139</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos en control de procesos no clasificados previamente	</t>
+    <t>Técnicos en control de procesos no clasificados previamente</t>
   </si>
   <si>
     <t>3141</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos en ciencias biológicas (excluyendo la medicina)	</t>
+    <t>Técnicos en ciencias biológicas (excluyendo la medicina)</t>
   </si>
   <si>
     <t>3142</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos agropecuarios (incluyendo acuícolas)	</t>
+    <t>Técnicos agropecuarios (incluyendo acuícolas)</t>
   </si>
   <si>
     <t>3143</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos forestales	</t>
+    <t>Técnicos forestales</t>
   </si>
   <si>
     <t>3151</t>
   </si>
   <si>
-    <t xml:space="preserve">Oficiales maquinistas en navegación	</t>
+    <t>Oficiales maquinistas en navegación</t>
   </si>
   <si>
     <t>3152</t>
   </si>
   <si>
-    <t xml:space="preserve">Capitanes y oficiales de cubierta	</t>
+    <t>Capitanes y oficiales de cubierta</t>
   </si>
   <si>
     <t>3153</t>
   </si>
   <si>
-    <t xml:space="preserve">Pilotos de aviación	</t>
+    <t>Pilotos de aviación</t>
   </si>
   <si>
     <t>3154</t>
   </si>
   <si>
-    <t xml:space="preserve">Controladores de tráfico aéreo	</t>
+    <t>Controladores de tráfico aéreo</t>
   </si>
   <si>
     <t>3155</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos electrónicos aeronáuticos	</t>
+    <t>Técnicos electrónicos aeronáuticos</t>
   </si>
   <si>
     <t>3211</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos y auxiliares paramédicos de radiología e imagenología y otros aparatos de diagnóstico y tratamiento médico 	</t>
+    <t>Técnicos y auxiliares paramédicos de radiología e imagenología y otros aparatos de diagnóstico y tratamiento médico</t>
   </si>
   <si>
     <t>3212</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos de laboratorios clínicos y servicios de sangre	</t>
+    <t>Técnicos de laboratorios clínicos y servicios de sangre</t>
   </si>
   <si>
     <t>3213</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos y asistentes farmacéuticos	</t>
+    <t>Técnicos y asistentes farmacéuticos</t>
   </si>
   <si>
     <t>3214</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos de prótesis médicas	</t>
+    <t>Técnicos de prótesis médicas</t>
   </si>
   <si>
     <t>3215</t>
   </si>
   <si>
-    <t xml:space="preserve">Laboratoristas dentales o técnicos en prótesis dentales	</t>
+    <t>Laboratoristas dentales o técnicos en prótesis dentales</t>
   </si>
   <si>
     <t>3216</t>
   </si>
   <si>
-    <t xml:space="preserve">Auxiliares paramédicos de anatomía patológica	</t>
+    <t>Auxiliares paramédicos de anatomía patológica</t>
   </si>
   <si>
     <t>3221</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos y auxiliares paramédicos de enfermería 	</t>
+    <t xml:space="preserve">Técnicos y auxiliares paramédicos de enfermería </t>
   </si>
   <si>
     <t>3222</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos y auxiliares paramédicos de esterilización	</t>
+    <t>Técnicos y auxiliares paramédicos de esterilización</t>
   </si>
   <si>
     <t>3223</t>
   </si>
   <si>
-    <t xml:space="preserve">Ayudantes de ambulancia	</t>
+    <t>Ayudantes de ambulancia</t>
   </si>
   <si>
     <t>3231</t>
   </si>
   <si>
-    <t xml:space="preserve">Profesionales y técnicos de las terapias complementarias  	</t>
+    <t>Profesionales y técnicos de las terapias complementarias</t>
   </si>
   <si>
     <t>3232</t>
   </si>
   <si>
-    <t xml:space="preserve">Practicantes de la medicina tradicional	</t>
+    <t>Practicantes de la medicina tradicional</t>
   </si>
   <si>
     <t>3240</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos y asistentes veterinarios	</t>
+    <t>Técnicos y asistentes veterinarios</t>
   </si>
   <si>
     <t>3251</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos y auxiliares paramédicos en odontología	</t>
+    <t>Técnicos y auxiliares paramédicos en odontología</t>
   </si>
   <si>
     <t>3252</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos en documentación e información sanitaria	</t>
+    <t>Técnicos en documentación e información sanitaria</t>
   </si>
   <si>
     <t>3253</t>
   </si>
   <si>
-    <t xml:space="preserve">Podólogos	</t>
+    <t>Podólogos</t>
   </si>
   <si>
     <t>3254</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos ópticos y contactólogos	</t>
+    <t>Técnicos ópticos y contactólogos</t>
   </si>
   <si>
     <t>3255</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos y asistentes fisioterapeutas	</t>
+    <t>Técnicos y asistentes fisioterapeutas</t>
   </si>
   <si>
     <t>3256</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos y auxiliares paramédicos de alimentación	</t>
+    <t>Técnicos y auxiliares paramédicos de alimentación</t>
   </si>
   <si>
     <t>3257</t>
   </si>
   <si>
-    <t xml:space="preserve">Inspectores de la salud y técnicos en prevención de riesgos	</t>
+    <t>Inspectores de la salud y técnicos en prevención de riesgos</t>
   </si>
   <si>
     <t>3258</t>
   </si>
   <si>
-    <t xml:space="preserve">Quiroprácticos y osteópatas	</t>
+    <t>Quiroprácticos y osteópatas</t>
   </si>
   <si>
     <t>3259</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros técnicos de la salud no clasificados previamente	</t>
+    <t>Otros técnicos de la salud no clasificados previamente</t>
   </si>
   <si>
     <t>3311</t>
   </si>
   <si>
-    <t xml:space="preserve">Agentes de bolsa y otros servicios financieros	</t>
+    <t>Agentes de bolsa y otros servicios financieros</t>
   </si>
   <si>
     <t>3312</t>
   </si>
   <si>
-    <t xml:space="preserve">Ejecutivos de préstamos y créditos	</t>
+    <t>Ejecutivos de préstamos y créditos</t>
   </si>
   <si>
     <t>3313</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos y asistentes en contabilidad	</t>
+    <t>Técnicos y asistentes en contabilidad</t>
   </si>
   <si>
     <t>3314</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos de servicios estadísticos y metamáticos	</t>
+    <t>Técnicos de servicios estadísticos y metamáticos</t>
   </si>
   <si>
     <t>3315</t>
   </si>
   <si>
-    <t xml:space="preserve">Tasadores	</t>
+    <t>Tasadores</t>
   </si>
   <si>
     <t>3321</t>
   </si>
   <si>
-    <t xml:space="preserve">Agentes de seguros y ejecutivos de fondos de pensiones	</t>
+    <t>Agentes de seguros y ejecutivos de fondos de pensiones</t>
   </si>
   <si>
     <t>3322</t>
   </si>
   <si>
-    <t xml:space="preserve">Representantes comerciales (excepto venta de productos y servicios industriales, farmacéuticos y de tecnologías de la información y las comunicaciones)	</t>
+    <t>Representantes comerciales (excepto venta de productos y servicios industriales, farmacéuticos y de tecnologías de la información y las comunicaciones)</t>
   </si>
   <si>
     <t>3323</t>
   </si>
   <si>
-    <t xml:space="preserve">Agentes responsables de adquisiciones	</t>
+    <t>Agentes responsables de adquisiciones</t>
   </si>
   <si>
     <t>3324</t>
   </si>
   <si>
-    <t xml:space="preserve">Corredores comerciales y consignatarios	</t>
+    <t>Corredores comerciales y consignatarios</t>
   </si>
   <si>
     <t>3331</t>
   </si>
   <si>
-    <t xml:space="preserve">Agentes de aduana 	</t>
+    <t>Agentes de aduana</t>
   </si>
   <si>
     <t>3332</t>
   </si>
   <si>
-    <t xml:space="preserve">Organizadores de conferencias y eventos	</t>
+    <t>Organizadores de conferencias y eventos</t>
   </si>
   <si>
     <t>3333</t>
   </si>
   <si>
-    <t xml:space="preserve">Agentes de empleo y contratistas de personal	</t>
+    <t>Agentes de empleo y contratistas de personal</t>
   </si>
   <si>
     <t>3334</t>
   </si>
   <si>
-    <t xml:space="preserve">Agentes inmobiliarios	</t>
+    <t>Agentes inmobiliarios</t>
   </si>
   <si>
     <t>3339</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros agentes de servicios comerciales no clasificados previamente	</t>
+    <t>Otros agentes de servicios comerciales no clasificados previamente</t>
   </si>
   <si>
     <t>3341</t>
   </si>
   <si>
-    <t xml:space="preserve">Supervisores de oficina  	</t>
+    <t>Supervisores de oficina</t>
   </si>
   <si>
     <t>3342</t>
   </si>
   <si>
-    <t xml:space="preserve">Secretarios jurídicos	</t>
+    <t>Secretarios jurídicos</t>
   </si>
   <si>
     <t>3343</t>
   </si>
   <si>
-    <t xml:space="preserve">Secretarios administrativos y ejecutivos	</t>
+    <t>Secretarios administrativos y ejecutivos</t>
   </si>
   <si>
     <t>3344</t>
   </si>
   <si>
-    <t xml:space="preserve">Secretarios médicos	</t>
+    <t>Secretarios médicos</t>
   </si>
   <si>
     <t>3351</t>
   </si>
   <si>
-    <t xml:space="preserve">Inspectores de aduana	</t>
+    <t>Inspectores de aduana</t>
   </si>
   <si>
     <t>3352</t>
   </si>
   <si>
-    <t xml:space="preserve">Agentes de la administración tributaria	</t>
+    <t>Agentes de la administración tributaria</t>
   </si>
   <si>
     <t>3353</t>
   </si>
   <si>
-    <t xml:space="preserve">Agentes de servicios de prestaciones sociales	</t>
+    <t>Agentes de servicios de prestaciones sociales</t>
   </si>
   <si>
     <t>3354</t>
   </si>
   <si>
-    <t xml:space="preserve">Agentes de servicios de tramitación y entrega de licencias y permisos	</t>
+    <t>Agentes de servicios de tramitación y entrega de licencias y permisos</t>
   </si>
   <si>
     <t>3355</t>
   </si>
   <si>
-    <t xml:space="preserve">Inspectores y detectives de la Policía de Investigaciones (PDI)	</t>
+    <t>Inspectores y detectives de la Policía de Investigaciones (PDI)</t>
   </si>
   <si>
     <t>3359</t>
   </si>
   <si>
-    <t xml:space="preserve">Agentes de la administración pública para la aplicación de la ley no clasificados previamente	</t>
+    <t>Agentes de la administración pública para la aplicación de la ley no clasificados previamente</t>
   </si>
   <si>
     <t>3411</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos de los servicios jurídicos  	</t>
+    <t>Técnicos de los servicios jurídicos</t>
   </si>
   <si>
     <t>3412</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnico en trabajo social	</t>
+    <t>Técnico en trabajo social</t>
   </si>
   <si>
     <t>3413</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos de los servicios religiosos	</t>
+    <t>Técnicos de los servicios religiosos</t>
   </si>
   <si>
     <t>3421</t>
   </si>
   <si>
-    <t xml:space="preserve">Atletas y deportistas	</t>
+    <t>Atletas y deportistas</t>
   </si>
   <si>
     <t>3422</t>
   </si>
   <si>
-    <t xml:space="preserve">Entrenadores, instructores y árbitros de actividades deportivas	</t>
+    <t>Entrenadores, instructores y árbitros de actividades deportivas</t>
   </si>
   <si>
     <t>3423</t>
   </si>
   <si>
-    <t xml:space="preserve">Instructores de acondicionamiento físico y actividades recreativas	</t>
+    <t>Instructores de acondicionamiento físico y actividades recreativas</t>
   </si>
   <si>
     <t>3431</t>
   </si>
   <si>
-    <t xml:space="preserve">Fotógrafos 	</t>
+    <t>Fotógrafos</t>
   </si>
   <si>
     <t>3432</t>
   </si>
   <si>
-    <t xml:space="preserve">Diseñadores y decorador de interior	</t>
+    <t>Diseñadores y decorador de interior</t>
   </si>
   <si>
     <t>3433</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos en galerías de arte, museos y bibliotecas	</t>
+    <t>Técnicos en galerías de arte, museos y bibliotecas</t>
   </si>
   <si>
     <t>3434</t>
   </si>
   <si>
-    <t xml:space="preserve">Chefs	</t>
+    <t>Chefs</t>
   </si>
   <si>
     <t>3435</t>
   </si>
   <si>
-    <t xml:space="preserve">Tatuadores	</t>
+    <t>Tatuadores</t>
   </si>
   <si>
     <t>3439</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros técnicos en actividades culturales y artísticas no clasificados previamente	</t>
+    <t>Otros técnicos en actividades culturales y artísticas no clasificados previamente</t>
   </si>
   <si>
     <t>3511</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos en operaciones de tecnología de la información y las comunicaciones	</t>
+    <t>Técnicos en operaciones de tecnología de la información y las comunicaciones</t>
   </si>
   <si>
     <t>3512</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos en asistencia al usuario de tecnología de la información y las comunicaciones	</t>
+    <t>Técnicos en asistencia al usuario de tecnología de la información y las comunicaciones</t>
   </si>
   <si>
     <t>3513</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos en redes y sistemas de computadores	</t>
+    <t>Técnicos en redes y sistemas de computadores</t>
   </si>
   <si>
     <t>3514</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos de la web	</t>
+    <t>Técnicos de la web</t>
   </si>
   <si>
     <t>3521</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos de radiodifusión y grabación audiovisual	</t>
+    <t>Técnicos de radiodifusión y grabación audiovisual</t>
   </si>
   <si>
     <t>3522</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos de ingeniería de las telecomunicaciones	</t>
+    <t>Técnicos de ingeniería de las telecomunicaciones</t>
   </si>
   <si>
     <t>3611</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos en educación parvularia	</t>
+    <t>Técnicos en educación parvularia</t>
   </si>
   <si>
     <t>3612</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos en educación diferencial	</t>
+    <t>Técnicos en educación diferencial</t>
   </si>
   <si>
     <t>4110</t>
   </si>
   <si>
-    <t xml:space="preserve">Trabajadores de tareas administrativas generales	</t>
+    <t>Trabajadores de tareas administrativas generales</t>
   </si>
   <si>
     <t>4120</t>
   </si>
   <si>
-    <t xml:space="preserve">Secretarios generales	</t>
+    <t>Secretarios generales</t>
   </si>
   <si>
     <t>4131</t>
   </si>
   <si>
-    <t xml:space="preserve">Oeradores de equipo de procesamiento de texto y mecanógrafos	</t>
+    <t>Oeradores de equipo de procesamiento de texto y mecanógrafos</t>
   </si>
   <si>
     <t>4132</t>
   </si>
   <si>
-    <t xml:space="preserve">Digitadores de datos	</t>
+    <t>Digitadores de datos</t>
   </si>
   <si>
     <t>4211</t>
   </si>
   <si>
-    <t xml:space="preserve">Cajeros de bancos y de oficinas de correo	</t>
+    <t>Cajeros de bancos y de oficinas de correo</t>
   </si>
   <si>
     <t>4212</t>
   </si>
   <si>
-    <t xml:space="preserve">Receptores de apuestas	</t>
+    <t>Receptores de apuestas</t>
   </si>
   <si>
     <t>4213</t>
   </si>
   <si>
-    <t xml:space="preserve">Empleados de casa de empeño y prestamistas	</t>
+    <t>Empleados de casa de empeño y prestamistas</t>
   </si>
   <si>
     <t>4214</t>
   </si>
   <si>
-    <t xml:space="preserve">Cobradores	</t>
+    <t>Cobradores</t>
   </si>
   <si>
     <t>4221</t>
   </si>
   <si>
-    <t xml:space="preserve">Empleados de agencias de viajes	</t>
+    <t>Empleados de agencias de viajes</t>
   </si>
   <si>
     <t>4222</t>
   </si>
   <si>
-    <t xml:space="preserve">Empleados de centros de llamadas de informaciones	</t>
+    <t>Empleados de centros de llamadas de informaciones</t>
   </si>
   <si>
     <t>4223</t>
   </si>
   <si>
-    <t xml:space="preserve">Telefonistas	</t>
+    <t>Telefonistas</t>
   </si>
   <si>
     <t>4224</t>
   </si>
   <si>
-    <t xml:space="preserve">Recepcionistas de hoteles	</t>
+    <t>Recepcionistas de hoteles</t>
   </si>
   <si>
     <t>4225</t>
   </si>
   <si>
-    <t xml:space="preserve">Empleados de informaciones, reclamos o sugerencias	</t>
+    <t>Empleados de informaciones, reclamos o sugerencias</t>
   </si>
   <si>
     <t>4226</t>
   </si>
   <si>
-    <t xml:space="preserve">Recepcionistas (funciones generales)	</t>
+    <t>Recepcionistas (funciones generales)</t>
   </si>
   <si>
     <t>4227</t>
   </si>
   <si>
-    <t xml:space="preserve">Entrevistadores de investigaciones de mercado, estudios de opinión pública y encuestadores	</t>
+    <t>Entrevistadores de investigaciones de mercado, estudios de opinión pública y encuestadores</t>
   </si>
   <si>
     <t>4229</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros empleados de servicios de información al cliente no clasificados previamente	</t>
+    <t>Otros empleados de servicios de información al cliente no clasificados previamente</t>
   </si>
   <si>
     <t>4311</t>
   </si>
   <si>
-    <t xml:space="preserve">Auxiliares y ayudantes de registros de contabilidad y cálculo de costos	</t>
+    <t>Auxiliares y ayudantes de registros de contabilidad y cálculo de costos</t>
   </si>
   <si>
     <t>4312</t>
   </si>
   <si>
-    <t xml:space="preserve">Auxiliares y ayudantes de servicios estadísticos, financieros y de seguros	</t>
+    <t>Auxiliares y ayudantes de servicios estadísticos, financieros y de seguros</t>
   </si>
   <si>
     <t>4313</t>
   </si>
   <si>
-    <t xml:space="preserve">Empleados encargados de nóminas o registros de remuneraciones 	</t>
+    <t>Empleados encargados de nóminas o registros de remuneraciones</t>
   </si>
   <si>
     <t>4321</t>
   </si>
   <si>
-    <t xml:space="preserve">Empleados encargados del control de abastecimiento e inventario	</t>
+    <t>Empleados encargados del control de abastecimiento e inventario</t>
   </si>
   <si>
     <t>4322</t>
   </si>
   <si>
-    <t xml:space="preserve">Empleados de cálculo de los insumos y materiales para la producción	</t>
+    <t>Empleados de cálculo de los insumos y materiales para la producción</t>
   </si>
   <si>
     <t>4323</t>
   </si>
   <si>
-    <t xml:space="preserve">Empleados de servicios de transporte	</t>
+    <t>Empleados de servicios de transporte</t>
   </si>
   <si>
     <t>4411</t>
   </si>
   <si>
-    <t xml:space="preserve">Asistentes y ayudantes de bibliotecas	</t>
+    <t>Asistentes y ayudantes de bibliotecas</t>
   </si>
   <si>
     <t>4412</t>
   </si>
   <si>
-    <t xml:space="preserve">Carteros y empleados de servicios de correos y encomiendas	</t>
+    <t>Carteros y empleados de servicios de correos y encomiendas</t>
   </si>
   <si>
     <t>4413</t>
   </si>
   <si>
-    <t xml:space="preserve">Codificadores de datos y correctores de pruebas de imprenta	</t>
+    <t>Codificadores de datos y correctores de pruebas de imprenta</t>
   </si>
   <si>
     <t>4414</t>
   </si>
   <si>
-    <t xml:space="preserve">Escribientes públicos	</t>
+    <t>Escribientes públicos</t>
   </si>
   <si>
     <t>4415</t>
   </si>
   <si>
-    <t xml:space="preserve">Empleados administrativos de archivos	</t>
+    <t>Empleados administrativos de archivos</t>
   </si>
   <si>
     <t>4416</t>
   </si>
   <si>
-    <t xml:space="preserve">Empleados y asistentes de recursos humanos	</t>
+    <t>Empleados y asistentes de recursos humanos</t>
   </si>
   <si>
     <t>4419</t>
   </si>
   <si>
-    <t xml:space="preserve">Otro personal de apoyo administrativo no clasificado previamente	</t>
+    <t>Otro personal de apoyo administrativo no clasificado previamente</t>
   </si>
   <si>
     <t>5111</t>
   </si>
   <si>
-    <t xml:space="preserve">Auxiliares de servicio a bordo de aeronaves y barcos	</t>
+    <t>Auxiliares de servicio a bordo de aeronaves y barcos</t>
   </si>
   <si>
     <t>5112</t>
   </si>
   <si>
-    <t xml:space="preserve">Revisores y cobradores de los transportes públicos	</t>
+    <t>Revisores y cobradores de los transportes públicos</t>
   </si>
   <si>
     <t>5113</t>
   </si>
   <si>
-    <t xml:space="preserve">Guías de turismo	</t>
+    <t>Guías de turismo</t>
   </si>
   <si>
     <t>5120</t>
   </si>
   <si>
-    <t xml:space="preserve">Cocineros	</t>
+    <t>Cocineros</t>
   </si>
   <si>
     <t>5131</t>
   </si>
   <si>
-    <t xml:space="preserve">Garzones de mesa  	</t>
+    <t>Garzones de mesa</t>
   </si>
   <si>
     <t>5132</t>
   </si>
   <si>
-    <t xml:space="preserve">bármanes	</t>
+    <t>bármanes</t>
   </si>
   <si>
     <t>5141</t>
   </si>
   <si>
-    <t xml:space="preserve">Peluqueros 	</t>
+    <t>Peluqueros</t>
   </si>
   <si>
     <t>5142</t>
   </si>
   <si>
-    <t xml:space="preserve">Cosmetólogos y especialistas en tratamiento de belleza	</t>
+    <t>Cosmetólogos y especialistas en tratamiento de belleza</t>
   </si>
   <si>
     <t>5151</t>
   </si>
   <si>
-    <t xml:space="preserve">Supervisores de mantenimiento y limpieza en oficinas, hoteles y otros establecimientos	</t>
+    <t>Supervisores de mantenimiento y limpieza en oficinas, hoteles y otros establecimientos</t>
   </si>
   <si>
     <t>5152</t>
   </si>
   <si>
-    <t xml:space="preserve">Amas de llaves, mayordomos domésticos y dueños/administradores de pequeños establecimientos de alojamiento	</t>
+    <t>Amas de llaves, mayordomos domésticos y dueños/administradores de pequeños establecimientos de alojamiento</t>
   </si>
   <si>
     <t>5153</t>
   </si>
   <si>
-    <t xml:space="preserve">Conserjes	</t>
+    <t>Conserjes</t>
   </si>
   <si>
     <t>5161</t>
   </si>
   <si>
-    <t xml:space="preserve">Astrólogos y adivinadores	</t>
+    <t>Astrólogos y adivinadores</t>
   </si>
   <si>
     <t>5162</t>
   </si>
   <si>
-    <t xml:space="preserve">Acompañantes	</t>
+    <t>Acompañantes</t>
   </si>
   <si>
     <t>5163</t>
   </si>
   <si>
-    <t xml:space="preserve">Personal de pompas fúnebres y embalsamadores	</t>
+    <t>Personal de pompas fúnebres y embalsamadores</t>
   </si>
   <si>
     <t>5164</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuidadores de animales	</t>
+    <t>Cuidadores de animales</t>
   </si>
   <si>
     <t>5165</t>
   </si>
   <si>
-    <t xml:space="preserve">Instructores de manejo	</t>
+    <t>Instructores de manejo</t>
   </si>
   <si>
     <t>5169</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros trabajadores de servicios a las personas no clasificados previamente	</t>
+    <t>Otros trabajadores de servicios a las personas no clasificados previamente</t>
   </si>
   <si>
     <t>5211</t>
   </si>
   <si>
-    <t xml:space="preserve">Vendedores en quioscos o puestos de feria  	</t>
+    <t>Vendedores en quioscos o puestos de feria</t>
   </si>
   <si>
     <t>5212</t>
   </si>
   <si>
-    <t xml:space="preserve">Vendedores ambulantes de productos comestibles de consumo inmediato (elaboración propia)	</t>
+    <t>Vendedores ambulantes de productos comestibles de consumo inmediato (elaboración propia)</t>
   </si>
   <si>
     <t>5221</t>
   </si>
   <si>
-    <t xml:space="preserve">Comerciantes y dueños - operadores de locales comerciales, tiendas, almacenes y mercados	</t>
+    <t>Comerciantes y dueños - operadores de locales comerciales, tiendas, almacenes y mercados</t>
   </si>
   <si>
     <t>5222</t>
   </si>
   <si>
-    <t xml:space="preserve">Supervisores de locales comerciales, tiendas y almacenes	</t>
+    <t>Supervisores de locales comerciales, tiendas y almacenes</t>
   </si>
   <si>
     <t>5223</t>
   </si>
   <si>
-    <t xml:space="preserve">Vendedores y asistentes de venta de tiendas, almacenes y puestos de mercado	</t>
+    <t>Vendedores y asistentes de venta de tiendas, almacenes y puestos de mercado</t>
   </si>
   <si>
     <t>5230</t>
   </si>
   <si>
-    <t xml:space="preserve">Vendedores de entrada (entretenciones y eventos deportivos) y cajeros de comercio	</t>
+    <t>Vendedores de entrada (entretenciones y eventos deportivos) y cajeros de comercio</t>
   </si>
   <si>
     <t>5241</t>
   </si>
   <si>
-    <t xml:space="preserve">Modelos de moda, arte y publicidad	</t>
+    <t>Modelos de moda, arte y publicidad</t>
   </si>
   <si>
     <t>5242</t>
   </si>
   <si>
-    <t xml:space="preserve">Promotores de tiendas	</t>
+    <t>Promotores de tiendas</t>
   </si>
   <si>
     <t>5243</t>
   </si>
   <si>
-    <t xml:space="preserve">Representantes de ventas de puerta a puerta (venta a hogares)	</t>
+    <t>Representantes de ventas de puerta a puerta (venta a hogares)</t>
   </si>
   <si>
     <t>5244</t>
   </si>
   <si>
-    <t xml:space="preserve">Vendedores por internet y otros medios de comunicación	</t>
+    <t>Vendedores por internet y otros medios de comunicación</t>
   </si>
   <si>
     <t>5245</t>
   </si>
   <si>
-    <t xml:space="preserve">Bomberos de gasolineras	</t>
+    <t>Bomberos de gasolineras</t>
   </si>
   <si>
     <t>5246</t>
   </si>
   <si>
-    <t xml:space="preserve">Vendedores de comida al mostrador	</t>
+    <t>Vendedores de comida al mostrador</t>
   </si>
   <si>
     <t>5249</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros vendedores no clasificados previamente	</t>
+    <t>Otros vendedores no clasificados previamente</t>
   </si>
   <si>
     <t>5311</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuidadores de niños en instituciones y a domicilios	</t>
+    <t>Cuidadores de niños en instituciones y a domicilios</t>
   </si>
   <si>
     <t>5312</t>
   </si>
   <si>
-    <t xml:space="preserve">Asistentes de aulas e inspectores de patio	</t>
+    <t>Asistentes de aulas e inspectores de patio</t>
   </si>
   <si>
     <t>5321</t>
   </si>
   <si>
-    <t xml:space="preserve">Trabajadores de los cuidados personales en instituciones 	</t>
+    <t xml:space="preserve">Trabajadores de los cuidados personales en instituciones </t>
   </si>
   <si>
     <t>5322</t>
   </si>
   <si>
-    <t xml:space="preserve">Trabajadores de los cuidados personales a domicilio	</t>
+    <t>Trabajadores de los cuidados personales a domicilio</t>
   </si>
   <si>
     <t>5329</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros trabajadores de los cuidados personales en instituciones y a domicilio no clasificados previamente	</t>
+    <t>Otros trabajadores de los cuidados personales en instituciones y a domicilio no clasificados previamente</t>
   </si>
   <si>
     <t>5411</t>
   </si>
   <si>
-    <t xml:space="preserve">Bomberos  	</t>
+    <t>Bomberos</t>
   </si>
   <si>
     <t>5412</t>
   </si>
   <si>
-    <t xml:space="preserve">Carabineros	</t>
+    <t>Carabineros</t>
   </si>
   <si>
     <t>5413</t>
   </si>
   <si>
-    <t xml:space="preserve">Gendarmes	</t>
+    <t>Gendarmes</t>
   </si>
   <si>
     <t>5414</t>
   </si>
   <si>
-    <t xml:space="preserve">Guardias de seguridad	</t>
+    <t>Guardias de seguridad</t>
   </si>
   <si>
     <t>5419</t>
   </si>
   <si>
-    <t xml:space="preserve">Otro personal de los servicios de protección no clasificados previamente	</t>
+    <t>Otro personal de los servicios de protección no clasificados previamente</t>
   </si>
   <si>
     <t>6111</t>
   </si>
   <si>
-    <t xml:space="preserve">Agricultores y trabajadores calificados de cultivos extensivos  	</t>
+    <t>Agricultores y trabajadores calificados de cultivos extensivos</t>
   </si>
   <si>
     <t>6112</t>
   </si>
   <si>
-    <t xml:space="preserve">Agricultores y trabajadores calificados de plantaciones de árboles y arbustos	</t>
+    <t>Agricultores y trabajadores calificados de plantaciones de árboles y arbustos</t>
   </si>
   <si>
     <t>6113</t>
   </si>
   <si>
-    <t xml:space="preserve">Agricultores y trabajadores calificados de huertas, invernaderos, viveros y jardines	</t>
+    <t>Agricultores y trabajadores calificados de huertas, invernaderos, viveros y jardines</t>
   </si>
   <si>
     <t>6114</t>
   </si>
   <si>
-    <t xml:space="preserve">Agricultores y trabajadores calificados de cultivos mixtos	</t>
+    <t>Agricultores y trabajadores calificados de cultivos mixtos</t>
   </si>
   <si>
     <t>6121</t>
   </si>
   <si>
-    <t xml:space="preserve">Criadores de ganado	</t>
+    <t>Criadores de ganado</t>
   </si>
   <si>
     <t>6122</t>
   </si>
   <si>
-    <t xml:space="preserve">Avicultores y trabajadores calificados de la avicultura	</t>
+    <t>Avicultores y trabajadores calificados de la avicultura</t>
   </si>
   <si>
     <t>6123</t>
   </si>
   <si>
-    <t xml:space="preserve">Trabajadores calificados de la apicultura y la sericultura	</t>
+    <t>Trabajadores calificados de la apicultura y la sericultura</t>
   </si>
   <si>
     <t>6129</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros criadores y trabajadores calificados de la cría de animales no clasificados previamente	</t>
+    <t>Otros criadores y trabajadores calificados de la cría de animales no clasificados previamente</t>
   </si>
   <si>
     <t>6130</t>
   </si>
   <si>
-    <t xml:space="preserve">Productores y trabajadores calificados de explotaciones agropecuarias mixtas	</t>
+    <t>Productores y trabajadores calificados de explotaciones agropecuarias mixtas</t>
   </si>
   <si>
     <t>6210</t>
   </si>
   <si>
-    <t xml:space="preserve">Trabajadores forestales calificados 	</t>
+    <t>Trabajadores forestales calificados</t>
   </si>
   <si>
     <t>6221</t>
   </si>
   <si>
-    <t xml:space="preserve">Trabajadores de explotaciones de acuicultura  	</t>
+    <t>Trabajadores de explotaciones de acuicultura</t>
   </si>
   <si>
     <t>6222</t>
   </si>
   <si>
-    <t xml:space="preserve">Pescadores en agua dulce y en aguas costeras	</t>
+    <t>Pescadores en agua dulce y en aguas costeras</t>
   </si>
   <si>
     <t>6223</t>
   </si>
   <si>
-    <t xml:space="preserve">Pescadores de alta mar	</t>
+    <t>Pescadores de alta mar</t>
   </si>
   <si>
     <t>6224</t>
   </si>
   <si>
-    <t xml:space="preserve">Cazadores y tramperos	</t>
+    <t>Cazadores y tramperos</t>
   </si>
   <si>
     <t>6310</t>
   </si>
   <si>
-    <t xml:space="preserve">Trabajadores agrícolas de subsistencia	</t>
+    <t>Trabajadores agrícolas de subsistencia</t>
   </si>
   <si>
     <t>6320</t>
   </si>
   <si>
-    <t xml:space="preserve">Criadores de subsistencia	</t>
+    <t>Criadores de subsistencia</t>
   </si>
   <si>
     <t>6330</t>
   </si>
   <si>
-    <t xml:space="preserve">Trabajadores agropecuarios de subsitencia	</t>
+    <t>Trabajadores agropecuarios de subsitencia</t>
   </si>
   <si>
     <t>6340</t>
   </si>
   <si>
-    <t xml:space="preserve">Pescadores, cazadores, tramperos y recolectores de subsistencia	</t>
+    <t>Pescadores, cazadores, tramperos y recolectores de subsistencia</t>
   </si>
   <si>
     <t>7111</t>
   </si>
   <si>
-    <t xml:space="preserve">Constructores de casas	</t>
+    <t>Constructores de casas</t>
   </si>
   <si>
     <t>7112</t>
   </si>
   <si>
-    <t xml:space="preserve">Albañiles	</t>
+    <t>Albañiles</t>
   </si>
   <si>
     <t>7113</t>
   </si>
   <si>
-    <t xml:space="preserve">Tronzadores, labrantes y grabadores de piedra	</t>
+    <t>Tronzadores, labrantes y grabadores de piedra</t>
   </si>
   <si>
     <t>7114</t>
   </si>
   <si>
-    <t xml:space="preserve">Operarios en cemento armado	</t>
+    <t>Operarios en cemento armado</t>
   </si>
   <si>
     <t>7115</t>
   </si>
   <si>
-    <t xml:space="preserve">Carpinteros de obra	</t>
+    <t>Carpinteros de obra</t>
   </si>
   <si>
     <t>7119</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros operarios de la construcción (obra gruesa) no clasificados previamente	</t>
+    <t>Otros operarios de la construcción (obra gruesa) no clasificados previamente</t>
   </si>
   <si>
     <t>7121</t>
   </si>
   <si>
-    <t xml:space="preserve">Instaladores o reparadores de techos	</t>
+    <t>Instaladores o reparadores de techos</t>
   </si>
   <si>
     <t>7122</t>
   </si>
   <si>
-    <t xml:space="preserve">Instaladores de parqué, cerámicas, baldosas y alfombras	</t>
+    <t>Instaladores de parqué, cerámicas, baldosas y alfombras</t>
   </si>
   <si>
     <t>7123</t>
   </si>
   <si>
-    <t xml:space="preserve">Yeseros, estucadores y revocadores	</t>
+    <t>Yeseros, estucadores y revocadores</t>
   </si>
   <si>
     <t>7124</t>
   </si>
   <si>
-    <t xml:space="preserve">Instaladores de material aislante y de insonorización	</t>
+    <t>Instaladores de material aislante y de insonorización</t>
   </si>
   <si>
     <t>7125</t>
   </si>
   <si>
-    <t xml:space="preserve">Cristaleros	</t>
+    <t>Cristaleros</t>
   </si>
   <si>
     <t>7126</t>
   </si>
   <si>
-    <t xml:space="preserve">Gásfiter e instaladores de tuberías	</t>
+    <t>Gásfiter e instaladores de tuberías</t>
   </si>
   <si>
     <t>7127</t>
   </si>
   <si>
-    <t xml:space="preserve">Mecánicos de instalaciones de refrigeración y aire acondicionado	</t>
+    <t>Mecánicos de instalaciones de refrigeración y aire acondicionado</t>
   </si>
   <si>
     <t>7131</t>
   </si>
   <si>
-    <t xml:space="preserve">Pintores y empapeladores de paredes	</t>
+    <t>Pintores y empapeladores de paredes</t>
   </si>
   <si>
     <t>7132</t>
   </si>
   <si>
-    <t xml:space="preserve">Barnizadores y pulverizadores de productos manufacturados	</t>
+    <t>Barnizadores y pulverizadores de productos manufacturados</t>
   </si>
   <si>
     <t>7133</t>
   </si>
   <si>
-    <t xml:space="preserve">Limpiadores de fachadas y deshollinadores	</t>
+    <t>Limpiadores de fachadas y deshollinadores</t>
   </si>
   <si>
     <t>7211</t>
   </si>
   <si>
-    <t xml:space="preserve">Moldeadores y macheros	</t>
+    <t>Moldeadores y macheros</t>
   </si>
   <si>
     <t>7212</t>
   </si>
   <si>
-    <t xml:space="preserve">Soldadores y oxicortadores	</t>
+    <t>Soldadores y oxicortadores</t>
   </si>
   <si>
     <t>7213</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapistas y caldereros	</t>
+    <t>Chapistas y caldereros</t>
   </si>
   <si>
     <t>7214</t>
   </si>
   <si>
-    <t xml:space="preserve">Montadores de estructuras metálicas	</t>
+    <t>Montadores de estructuras metálicas</t>
   </si>
   <si>
     <t>7215</t>
   </si>
   <si>
-    <t xml:space="preserve">Aparejadores y empalmadores de cables no eléctricos	</t>
+    <t>Aparejadores y empalmadores de cables no eléctricos</t>
   </si>
   <si>
     <t>7221</t>
   </si>
   <si>
-    <t xml:space="preserve">Herreros y forjadores	</t>
+    <t>Herreros y forjadores</t>
   </si>
   <si>
     <t>7222</t>
   </si>
   <si>
-    <t xml:space="preserve">Herramentistas	</t>
+    <t>Herramentistas</t>
   </si>
   <si>
     <t>7223</t>
   </si>
   <si>
-    <t xml:space="preserve">Reguladores y operarios de máquinas herramientas	</t>
+    <t>Reguladores y operarios de máquinas herramientas</t>
   </si>
   <si>
     <t>7224</t>
   </si>
   <si>
-    <t xml:space="preserve">Pulidores de metales y afiladores de herramientas	</t>
+    <t>Pulidores de metales y afiladores de herramientas</t>
   </si>
   <si>
     <t>7231</t>
   </si>
   <si>
-    <t xml:space="preserve">Mecánicos y reparadores de vehículos de motor	</t>
+    <t>Mecánicos y reparadores de vehículos de motor</t>
   </si>
   <si>
     <t>7232</t>
   </si>
   <si>
-    <t xml:space="preserve">Mecánicos y reparadores de motores de avión	</t>
+    <t>Mecánicos y reparadores de motores de avión</t>
   </si>
   <si>
     <t>7233</t>
   </si>
   <si>
-    <t xml:space="preserve">Mecánicos y reparadores de máquinas agrícolas e industriales	</t>
+    <t>Mecánicos y reparadores de máquinas agrícolas e industriales</t>
   </si>
   <si>
     <t>7234</t>
   </si>
   <si>
-    <t xml:space="preserve">Reparadores de bicicletas	</t>
+    <t>Reparadores de bicicletas</t>
   </si>
   <si>
     <t>7311</t>
   </si>
   <si>
-    <t xml:space="preserve">mecánicos y reparadores de instrumentos de precisión	</t>
+    <t>mecánicos y reparadores de instrumentos de precisión</t>
   </si>
   <si>
     <t>7312</t>
   </si>
   <si>
-    <t xml:space="preserve">Fabricantes y afinadores de instrumentos musicales	</t>
+    <t>Fabricantes y afinadores de instrumentos musicales</t>
   </si>
   <si>
     <t>7313</t>
   </si>
   <si>
-    <t xml:space="preserve">Joyeros, orfebres y plateros	</t>
+    <t>Joyeros, orfebres y plateros</t>
   </si>
   <si>
     <t>7314</t>
   </si>
   <si>
-    <t xml:space="preserve">Alfareros (barro, arcilla y abrasivos)	</t>
+    <t>Alfareros (barro, arcilla y abrasivos)</t>
   </si>
   <si>
     <t>7315</t>
   </si>
   <si>
-    <t xml:space="preserve">Sopladores, modeladores, laminadores, cortadores y pulidores de vidrio	</t>
+    <t>Sopladores, modeladores, laminadores, cortadores y pulidores de vidrio</t>
   </si>
   <si>
     <t>7316</t>
   </si>
   <si>
-    <t xml:space="preserve">Pintores de carteles, pintores decorativos y grabadores	</t>
+    <t>Pintores de carteles, pintores decorativos y grabadores</t>
   </si>
   <si>
     <t>7317</t>
   </si>
   <si>
-    <t xml:space="preserve">Artesanos en madera, cestería y materiales similares	</t>
+    <t>Artesanos en madera, cestería y materiales similares</t>
   </si>
   <si>
     <t>7318</t>
   </si>
   <si>
-    <t xml:space="preserve">Artesanos de los tejidos, el cuero y materiales similares	</t>
+    <t>Artesanos de los tejidos, el cuero y materiales similares</t>
   </si>
   <si>
     <t>7319</t>
   </si>
   <si>
-    <t xml:space="preserve">Artesanos no clasificados previamente	</t>
+    <t>Artesanos no clasificados previamente</t>
   </si>
   <si>
     <t>7321</t>
   </si>
   <si>
-    <t xml:space="preserve">Tipógrafos  	</t>
+    <t>Tipógrafos</t>
   </si>
   <si>
     <t>7322</t>
   </si>
   <si>
-    <t xml:space="preserve">Impresores	</t>
+    <t>Impresores</t>
   </si>
   <si>
     <t>7323</t>
   </si>
   <si>
-    <t xml:space="preserve">Encuadernadores	</t>
+    <t>Encuadernadores</t>
   </si>
   <si>
     <t>7411</t>
   </si>
   <si>
-    <t xml:space="preserve">Electricistas de obras	</t>
+    <t>Electricistas de obras</t>
   </si>
   <si>
     <t>7412</t>
   </si>
   <si>
-    <t xml:space="preserve">Mecánicos y ajustadores electricistas	</t>
+    <t>Mecánicos y ajustadores electricistas</t>
   </si>
   <si>
     <t>7413</t>
   </si>
   <si>
-    <t xml:space="preserve">Instaladores y reparadores de líneas eléctricas	</t>
+    <t>Instaladores y reparadores de líneas eléctricas</t>
   </si>
   <si>
     <t>7421</t>
   </si>
   <si>
-    <t xml:space="preserve">Mecánicos y reparadores en electrónica	</t>
+    <t>Mecánicos y reparadores en electrónica</t>
   </si>
   <si>
     <t>7422</t>
   </si>
   <si>
-    <t xml:space="preserve">Instaladores y reparadores en tecnología de la información y las comunicaciones	</t>
+    <t>Instaladores y reparadores en tecnología de la información y las comunicaciones</t>
   </si>
   <si>
     <t>7511</t>
   </si>
   <si>
-    <t xml:space="preserve">Carniceros y pescaderos	</t>
+    <t>Carniceros y pescaderos</t>
   </si>
   <si>
     <t>7512</t>
   </si>
   <si>
-    <t xml:space="preserve">Panaderos, pasteleros y confíteros	</t>
+    <t>Panaderos, pasteleros y confíteros</t>
   </si>
   <si>
     <t>7513</t>
   </si>
   <si>
-    <t xml:space="preserve">Operarios de la elaboración de productos lácteos	</t>
+    <t>Operarios de la elaboración de productos lácteos</t>
   </si>
   <si>
     <t>7514</t>
   </si>
   <si>
-    <t xml:space="preserve">Operarios de la conservación de frutas, legumbres y verduras	</t>
+    <t>Operarios de la conservación de frutas, legumbres y verduras</t>
   </si>
   <si>
     <t>7515</t>
   </si>
   <si>
-    <t xml:space="preserve">Catadores, clasificadores y controladores de calidad de alimentos y bebidas	</t>
+    <t>Catadores, clasificadores y controladores de calidad de alimentos y bebidas</t>
   </si>
   <si>
     <t>7516</t>
   </si>
   <si>
-    <t xml:space="preserve">Elaboradores de tabaco y sus productos	</t>
+    <t>Elaboradores de tabaco y sus productos</t>
   </si>
   <si>
     <t>7521</t>
   </si>
   <si>
-    <t xml:space="preserve">Operarios del tratamiento de la madera 	</t>
+    <t>Operarios del tratamiento de la madera</t>
   </si>
   <si>
     <t>7522</t>
   </si>
   <si>
-    <t xml:space="preserve">Ebanistas y mueblistas	</t>
+    <t>Ebanistas y mueblistas</t>
   </si>
   <si>
     <t>7523</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores y reguladores de máquinas para trabajar la madera	</t>
+    <t>Operadores y reguladores de máquinas para trabajar la madera</t>
   </si>
   <si>
     <t>7531</t>
   </si>
   <si>
-    <t xml:space="preserve">Sastres, modistos, peleteros y sombrereros	</t>
+    <t>Sastres, modistos, peleteros y sombrereros</t>
   </si>
   <si>
     <t>7532</t>
   </si>
   <si>
-    <t xml:space="preserve">Patronistas y cortadores de telas	</t>
+    <t>Patronistas y cortadores de telas</t>
   </si>
   <si>
     <t>7533</t>
   </si>
   <si>
-    <t xml:space="preserve">Costureros y bordadores	</t>
+    <t>Costureros y bordadores</t>
   </si>
   <si>
     <t>7534</t>
   </si>
   <si>
-    <t xml:space="preserve">Tapiceros	</t>
+    <t>Tapiceros</t>
   </si>
   <si>
     <t>7535</t>
   </si>
   <si>
-    <t xml:space="preserve">Apelambradores, pellejeros y curtidores	</t>
+    <t>Apelambradores, pellejeros y curtidores</t>
   </si>
   <si>
     <t>7536</t>
   </si>
   <si>
-    <t xml:space="preserve">Zapateros	</t>
+    <t>Zapateros</t>
   </si>
   <si>
     <t>7541</t>
   </si>
   <si>
-    <t xml:space="preserve">Buzos 	</t>
+    <t xml:space="preserve">Buzos </t>
   </si>
   <si>
     <t>7542</t>
   </si>
   <si>
-    <t xml:space="preserve">Dinamiteros y pegadores	</t>
+    <t>Dinamiteros y pegadores</t>
   </si>
   <si>
     <t>7543</t>
   </si>
   <si>
-    <t xml:space="preserve">Clasificadores, probadores de productos e inspectores de calidad (excluyendo alimentos y bebidas)	</t>
+    <t>Clasificadores, probadores de productos e inspectores de calidad (excluyendo alimentos y bebidas)</t>
   </si>
   <si>
     <t>7544</t>
   </si>
   <si>
-    <t xml:space="preserve">Fumigadores y otros controladores de plagas y malezas	</t>
+    <t>Fumigadores y otros controladores de plagas y malezas</t>
   </si>
   <si>
     <t>7549</t>
   </si>
   <si>
-    <t xml:space="preserve">Operarios de otros oficios no clasificados previamente	</t>
+    <t>Operarios de otros oficios no clasificados previamente</t>
   </si>
   <si>
     <t>8111</t>
   </si>
   <si>
-    <t xml:space="preserve">Mineros y operadores de instalaciones mineras 	</t>
+    <t>Mineros y operadores de instalaciones mineras</t>
   </si>
   <si>
     <t>8112</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de instalaciones de procesamiento de minerales y rocas	</t>
+    <t>Operadores de instalaciones de procesamiento de minerales y rocas</t>
   </si>
   <si>
     <t>8113</t>
   </si>
   <si>
-    <t xml:space="preserve">Perforadores y sondistas de pozos	</t>
+    <t>Perforadores y sondistas de pozos</t>
   </si>
   <si>
     <t>8114</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de máquinas para fabricar cemento y otros productos minerales	</t>
+    <t>Operadores de máquinas para fabricar cemento y otros productos minerales</t>
   </si>
   <si>
     <t>8121</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de instalaciones de procesamiento de metales	</t>
+    <t>Operadores de instalaciones de procesamiento de metales</t>
   </si>
   <si>
     <t>8122</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de máquinas de acabado de metales (pulidores, galvanizadores y recubridores de metales)	</t>
+    <t>Operadores de máquinas de acabado de metales (pulidores, galvanizadores y recubridores de metales)</t>
   </si>
   <si>
     <t>8131</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de plantas y máquinas para fabricar productos químicos	</t>
+    <t>Operadores de plantas y máquinas para fabricar productos químicos</t>
   </si>
   <si>
     <t>8132</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de máquinas para fabricar productos fotográficos	</t>
+    <t>Operadores de máquinas para fabricar productos fotográficos</t>
   </si>
   <si>
     <t>8141</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de máquinas para fabricar productos de caucho 	</t>
+    <t>Operadores de máquinas para fabricar productos de caucho</t>
   </si>
   <si>
     <t>8142</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de máquinas para fabricar productos de material plástico	</t>
+    <t>Operadores de máquinas para fabricar productos de material plástico</t>
   </si>
   <si>
     <t>8143</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de máquinas para fabricar productos de papel	</t>
+    <t>Operadores de máquinas para fabricar productos de papel</t>
   </si>
   <si>
     <t>8151</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de máquinas de preparación de fibras, hilado y devanado	</t>
+    <t>Operadores de máquinas de preparación de fibras, hilado y devanado</t>
   </si>
   <si>
     <t>8152</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de telares y otras máquinas tejedoras	</t>
+    <t>Operadores de telares y otras máquinas tejedoras</t>
   </si>
   <si>
     <t>8153</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de máquinas de coser	</t>
+    <t>Operadores de máquinas de coser</t>
   </si>
   <si>
     <t>8154</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de máquinas de blanqueamiento, teñido y limpieza de tejidos	</t>
+    <t>Operadores de máquinas de blanqueamiento, teñido y limpieza de tejidos</t>
   </si>
   <si>
     <t>8155</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de máquinas de tratamiento de pieles y cueros	</t>
+    <t>Operadores de máquinas de tratamiento de pieles y cueros</t>
   </si>
   <si>
     <t>8156</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de máquinas para la fabricación de calzado, bolsos y accesorios de talabartería	</t>
+    <t>Operadores de máquinas para la fabricación de calzado, bolsos y accesorios de talabartería</t>
   </si>
   <si>
     <t>8157</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de máquinas de lavanderías	</t>
+    <t>Operadores de máquinas de lavanderías</t>
   </si>
   <si>
     <t>8159</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de máquinas para fabricar productos textiles y artículos de piel y cuero no clasificados previamente	</t>
+    <t>Operadores de máquinas para fabricar productos textiles y artículos de piel y cuero no clasificados previamente</t>
   </si>
   <si>
     <t>8160</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de máquinas para elaborar alimentos, bebidas y cigarrillos	</t>
+    <t>Operadores de máquinas para elaborar alimentos, bebidas y cigarrillos</t>
   </si>
   <si>
     <t>8171</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de instalaciones para la preparación de papel y de pasta para papel	</t>
+    <t>Operadores de instalaciones para la preparación de papel y de pasta para papel</t>
   </si>
   <si>
     <t>8172</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de instalaciones de procesamiento de la madera	</t>
+    <t>Operadores de instalaciones de procesamiento de la madera</t>
   </si>
   <si>
     <t>8181</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de instalaciones de vidrieriía y cerámica	</t>
+    <t>Operadores de instalaciones de vidrieriía y cerámica</t>
   </si>
   <si>
     <t>8182</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de máquinas de vapor y calderas	</t>
+    <t>Operadores de máquinas de vapor y calderas</t>
   </si>
   <si>
     <t>8183</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de máquinas de embalaje, embotellamiento y etiquetado	</t>
+    <t>Operadores de máquinas de embalaje, embotellamiento y etiquetado</t>
   </si>
   <si>
     <t>8189</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de máquinas y de instalaciones fijas no clasificados previamente	</t>
+    <t>Operadores de máquinas y de instalaciones fijas no clasificados previamente</t>
   </si>
   <si>
     <t>8211</t>
   </si>
   <si>
-    <t xml:space="preserve">Ensambladores de maquinaria mecánica 	</t>
+    <t>Ensambladores de maquinaria mecánica</t>
   </si>
   <si>
     <t>8212</t>
   </si>
   <si>
-    <t xml:space="preserve">Ensambladores de equipos eléctricos y electrónicos	</t>
+    <t>Ensambladores de equipos eléctricos y electrónicos</t>
   </si>
   <si>
     <t>8219</t>
   </si>
   <si>
-    <t xml:space="preserve">Ensambladores no clasificados previamente	</t>
+    <t>Ensambladores no clasificados previamente</t>
   </si>
   <si>
     <t>8311</t>
   </si>
   <si>
-    <t xml:space="preserve">Maquinistas de locomotoras  	</t>
+    <t>Maquinistas de locomotoras</t>
   </si>
   <si>
     <t>8312</t>
   </si>
   <si>
-    <t xml:space="preserve">Guardafrenos, guardagujas y agentes de maniobras	</t>
+    <t>Guardafrenos, guardagujas y agentes de maniobras</t>
   </si>
   <si>
     <t>8321</t>
   </si>
   <si>
-    <t xml:space="preserve">Conductores de motocicletas 	</t>
+    <t>Conductores de motocicletas</t>
   </si>
   <si>
     <t>8322</t>
   </si>
   <si>
-    <t xml:space="preserve">Conductores de automóviles, taxis y camionetas	</t>
+    <t>Conductores de automóviles, taxis y camionetas</t>
   </si>
   <si>
     <t>8331</t>
   </si>
   <si>
-    <t xml:space="preserve">Conductores de buses y trolebuses	</t>
+    <t>Conductores de buses y trolebuses</t>
   </si>
   <si>
     <t>8332</t>
   </si>
   <si>
-    <t xml:space="preserve">Conductores de camiones pesados y de alto tonelaje	</t>
+    <t>Conductores de camiones pesados y de alto tonelaje</t>
   </si>
   <si>
     <t>8341</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de maquinaria agrícola y forestal móvil	</t>
+    <t>Operadores de maquinaria agrícola y forestal móvil</t>
   </si>
   <si>
     <t>8342</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de máquinas de movimiento de tierras	</t>
+    <t>Operadores de máquinas de movimiento de tierras</t>
   </si>
   <si>
     <t>8343</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de grúas y aparatos elevadores	</t>
+    <t>Operadores de grúas y aparatos elevadores</t>
   </si>
   <si>
     <t>8344</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de autoelevadoras y montacargas	</t>
+    <t>Operadores de autoelevadoras y montacargas</t>
   </si>
   <si>
     <t>8350</t>
   </si>
   <si>
-    <t xml:space="preserve">Tripulantes de cubierta de barco	</t>
+    <t>Tripulantes de cubierta de barco</t>
   </si>
   <si>
     <t>9111</t>
   </si>
   <si>
-    <t xml:space="preserve">Trabajadores de casa particular y asistentes domésticos	</t>
+    <t>Trabajadores de casa particular y asistentes domésticos</t>
   </si>
   <si>
     <t>9112</t>
   </si>
   <si>
-    <t xml:space="preserve">Auxiliares de aseo de oficinas, hoteles y otros establecimientos	</t>
+    <t>Auxiliares de aseo de oficinas, hoteles y otros establecimientos</t>
   </si>
   <si>
     <t>9121</t>
   </si>
   <si>
-    <t xml:space="preserve">Lavadores y planchadores manuales	</t>
+    <t>Lavadores y planchadores manuales</t>
   </si>
   <si>
     <t>9122</t>
   </si>
   <si>
-    <t xml:space="preserve">Limpiadores de vehículos 	</t>
+    <t>Limpiadores de vehículos</t>
   </si>
   <si>
     <t>9123</t>
   </si>
   <si>
-    <t xml:space="preserve">Limpiadores de ventanas	</t>
+    <t>Limpiadores de ventanas</t>
   </si>
   <si>
     <t>9129</t>
   </si>
   <si>
-    <t xml:space="preserve">Otro personal de limpieza no clasificado previamente	</t>
+    <t>Otro personal de limpieza no clasificado previamente</t>
   </si>
   <si>
     <t>9211</t>
   </si>
   <si>
-    <t xml:space="preserve">Obreros de explotaciones agrícolas	</t>
+    <t>Obreros de explotaciones agrícolas</t>
   </si>
   <si>
     <t>9212</t>
   </si>
   <si>
-    <t xml:space="preserve">Obreros de explotaciones ganaderas	</t>
+    <t>Obreros de explotaciones ganaderas</t>
   </si>
   <si>
     <t>9213</t>
   </si>
   <si>
-    <t xml:space="preserve">Obreros de explotaciones agropecuarias	</t>
+    <t>Obreros de explotaciones agropecuarias</t>
   </si>
   <si>
     <t>9214</t>
   </si>
   <si>
-    <t xml:space="preserve">Ayudantes de jardinería y horticultura	</t>
+    <t>Ayudantes de jardinería y horticultura</t>
   </si>
   <si>
     <t>9215</t>
   </si>
   <si>
-    <t xml:space="preserve">Obreros forestales	</t>
+    <t>Obreros forestales</t>
   </si>
   <si>
     <t>9216</t>
   </si>
   <si>
-    <t xml:space="preserve">Obreros de pesca y acuicultura	</t>
+    <t>Obreros de pesca y acuicultura</t>
   </si>
   <si>
     <t>9311</t>
   </si>
   <si>
-    <t xml:space="preserve">Obreros de la minería	</t>
+    <t>Obreros de la minería</t>
   </si>
   <si>
     <t>9312</t>
   </si>
   <si>
-    <t xml:space="preserve">Obreros de obras públicas	</t>
+    <t>Obreros de obras públicas</t>
   </si>
   <si>
     <t>9313</t>
   </si>
   <si>
-    <t xml:space="preserve">Obreros de la construcción de edificios	</t>
+    <t>Obreros de la construcción de edificios</t>
   </si>
   <si>
     <t>9321</t>
   </si>
   <si>
-    <t xml:space="preserve">Empacadores manuales	</t>
+    <t>Empacadores manuales</t>
   </si>
   <si>
     <t>9329</t>
   </si>
   <si>
-    <t xml:space="preserve">Obreros de la industria manufacturera no clasificados previamente	</t>
+    <t>Obreros de la industria manufacturera no clasificados previamente</t>
   </si>
   <si>
     <t>9331</t>
   </si>
   <si>
-    <t xml:space="preserve">Conductores de vehículos accionados a pedal o a brazo (no motorizados)	</t>
+    <t>Conductores de vehículos accionados a pedal o a brazo (no motorizados)</t>
   </si>
   <si>
     <t>9332</t>
   </si>
   <si>
-    <t xml:space="preserve">Conductores de vehículos y máquinas de tracción animal	</t>
+    <t>Conductores de vehículos y máquinas de tracción animal</t>
   </si>
   <si>
     <t>9333</t>
   </si>
   <si>
-    <t xml:space="preserve">Obreros de carga	</t>
+    <t>Obreros de carga</t>
   </si>
   <si>
     <t>9334</t>
   </si>
   <si>
-    <t xml:space="preserve">Reponedores de estanterías	</t>
+    <t>Reponedores de estanterías</t>
   </si>
   <si>
     <t>9411</t>
   </si>
   <si>
-    <t xml:space="preserve">Cocineros de comida rápida  	</t>
+    <t>Cocineros de comida rápida</t>
   </si>
   <si>
     <t>9412</t>
   </si>
   <si>
-    <t xml:space="preserve">Ayudantes de cocina	</t>
+    <t>Ayudantes de cocina</t>
   </si>
   <si>
     <t>9510</t>
   </si>
   <si>
-    <t xml:space="preserve">Trabajadores ambulantes de servicios  	</t>
+    <t>Trabajadores ambulantes de servicios</t>
   </si>
   <si>
     <t>9520</t>
   </si>
   <si>
-    <t xml:space="preserve">Vendedores ambulantes (excluyendo comida de consumo inmediato)	</t>
+    <t>Vendedores ambulantes (excluyendo comida de consumo inmediato)</t>
   </si>
   <si>
     <t>9611</t>
   </si>
   <si>
-    <t xml:space="preserve">Recolectores de basura y material reciclable  	</t>
+    <t>Recolectores de basura y material reciclable</t>
   </si>
   <si>
     <t>9612</t>
   </si>
   <si>
-    <t xml:space="preserve">Clasificadores de desechos	</t>
+    <t>Clasificadores de desechos</t>
   </si>
   <si>
     <t>9613</t>
   </si>
   <si>
-    <t xml:space="preserve">Barrenderos	</t>
+    <t>Barrenderos</t>
   </si>
   <si>
     <t>9621</t>
   </si>
   <si>
-    <t xml:space="preserve">Mensajeros, estafetas, maleteros y repartidores de folletos y diarios a domicilio	</t>
+    <t>Mensajeros, estafetas, maleteros y repartidores de folletos y diarios a domicilio</t>
   </si>
   <si>
     <t>9622</t>
   </si>
   <si>
-    <t xml:space="preserve">Auxiliares de mantenimiento (pequeñas reparaciones)	</t>
+    <t>Auxiliares de mantenimiento (pequeñas reparaciones)</t>
   </si>
   <si>
     <t>9623</t>
   </si>
   <si>
-    <t xml:space="preserve">Recolectores de dinero en máquinas expendedoras de venta automática y lectores de medidores	</t>
+    <t>Recolectores de dinero en máquinas expendedoras de venta automática y lectores de medidores</t>
   </si>
   <si>
     <t>9624</t>
   </si>
   <si>
-    <t xml:space="preserve">Acarreadores de agua y recolectores de leña	</t>
+    <t>Acarreadores de agua y recolectores de leña</t>
   </si>
   <si>
     <t>9629</t>
   </si>
   <si>
-    <t xml:space="preserve">Otras ocupaciones elementales no clasificadas previamente	</t>
+    <t>Otras ocupaciones elementales no clasificadas previamente</t>
   </si>
 </sst>
 </file>

--- a/CodeSystem-CSOcupacionesDet.xlsx
+++ b/CodeSystem-CSOcupacionesDet.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/CodeSystem-CSOcupacionesDet.xlsx
+++ b/CodeSystem-CSOcupacionesDet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="927">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -75,12 +75,6 @@
     <t>No display for ContactDetail</t>
   </si>
   <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -177,7 +171,7 @@
     <t>1114</t>
   </si>
   <si>
-    <t xml:space="preserve">Dirigentes de organizaciones sociales y/o políticas (sindicatos, organizaciones sociales, partidos políticos, entre otras)	</t>
+    <t>Dirigentes de organizaciones sociales y/o políticas (sindicatos, organizaciones sociales, partidos políticos, entre otras)</t>
   </si>
   <si>
     <t>1120</t>
@@ -1095,7 +1089,7 @@
     <t>3221</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos y auxiliares paramédicos de enfermería </t>
+    <t>Técnicos y auxiliares paramédicos de enfermería</t>
   </si>
   <si>
     <t>3222</t>
@@ -1815,7 +1809,7 @@
     <t>5321</t>
   </si>
   <si>
-    <t xml:space="preserve">Trabajadores de los cuidados personales en instituciones </t>
+    <t>Trabajadores de los cuidados personales en instituciones</t>
   </si>
   <si>
     <t>5322</t>
@@ -2337,7 +2331,7 @@
     <t>7541</t>
   </si>
   <si>
-    <t xml:space="preserve">Buzos </t>
+    <t>Buzos</t>
   </si>
   <si>
     <t>7542</t>
@@ -2933,7 +2927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3035,74 +3029,66 @@
       <c r="A12" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>13</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B20" t="s" s="2">
-        <v>32</v>
-      </c>
+      <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>33</v>
-      </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3120,5343 +3106,5343 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s" s="1">
         <v>36</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>37</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>40</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D74" s="2"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D75" s="2"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D76" s="2"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D77" s="2"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D78" s="2"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D79" s="2"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D80" s="2"/>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D81" s="2"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D82" s="2"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D83" s="2"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D84" s="2"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D85" s="2"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D86" s="2"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D87" s="2"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D88" s="2"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D89" s="2"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D90" s="2"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D91" s="2"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D92" s="2"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D93" s="2"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D94" s="2"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D95" s="2"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D96" s="2"/>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D97" s="2"/>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D98" s="2"/>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D99" s="2"/>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D100" s="2"/>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D101" s="2"/>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D102" s="2"/>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D103" s="2"/>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D104" s="2"/>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D105" s="2"/>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D106" s="2"/>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D107" s="2"/>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D108" s="2"/>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D109" s="2"/>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D110" s="2"/>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D111" s="2"/>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D112" s="2"/>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D113" s="2"/>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D114" s="2"/>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D115" s="2"/>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D116" s="2"/>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D117" s="2"/>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D118" s="2"/>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D119" s="2"/>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D120" s="2"/>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D121" s="2"/>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D122" s="2"/>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D123" s="2"/>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D124" s="2"/>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D125" s="2"/>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D126" s="2"/>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D127" s="2"/>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D128" s="2"/>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D129" s="2"/>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D130" s="2"/>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D131" s="2"/>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D132" s="2"/>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D133" s="2"/>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D134" s="2"/>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D135" s="2"/>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D136" s="2"/>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D137" s="2"/>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D138" s="2"/>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D139" s="2"/>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D140" s="2"/>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D141" s="2"/>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D142" s="2"/>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D143" s="2"/>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D144" s="2"/>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D145" s="2"/>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D146" s="2"/>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D147" s="2"/>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D148" s="2"/>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D149" s="2"/>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D150" s="2"/>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D151" s="2"/>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D152" s="2"/>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D153" s="2"/>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D154" s="2"/>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D155" s="2"/>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D156" s="2"/>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D157" s="2"/>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D158" s="2"/>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D159" s="2"/>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D160" s="2"/>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D161" s="2"/>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D162" s="2"/>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D163" s="2"/>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D164" s="2"/>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D165" s="2"/>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D166" s="2"/>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D167" s="2"/>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D168" s="2"/>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D169" s="2"/>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D170" s="2"/>
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D171" s="2"/>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D172" s="2"/>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D173" s="2"/>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D174" s="2"/>
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D175" s="2"/>
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D176" s="2"/>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D177" s="2"/>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D178" s="2"/>
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D179" s="2"/>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D180" s="2"/>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D181" s="2"/>
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D182" s="2"/>
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D183" s="2"/>
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D184" s="2"/>
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D185" s="2"/>
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D186" s="2"/>
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D187" s="2"/>
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D188" s="2"/>
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D189" s="2"/>
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D190" s="2"/>
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D191" s="2"/>
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D192" s="2"/>
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D193" s="2"/>
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D194" s="2"/>
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D195" s="2"/>
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D196" s="2"/>
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D197" s="2"/>
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D198" s="2"/>
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D199" s="2"/>
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D200" s="2"/>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D201" s="2"/>
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D202" s="2"/>
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D203" s="2"/>
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D204" s="2"/>
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D205" s="2"/>
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D206" s="2"/>
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D207" s="2"/>
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D208" s="2"/>
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D209" s="2"/>
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D210" s="2"/>
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D211" s="2"/>
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D212" s="2"/>
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D213" s="2"/>
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D214" s="2"/>
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D215" s="2"/>
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D216" s="2"/>
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D217" s="2"/>
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D218" s="2"/>
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D219" s="2"/>
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D220" s="2"/>
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D221" s="2"/>
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D222" s="2"/>
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D223" s="2"/>
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D224" s="2"/>
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D225" s="2"/>
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D226" s="2"/>
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D227" s="2"/>
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D228" s="2"/>
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D229" s="2"/>
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D230" s="2"/>
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D231" s="2"/>
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D232" s="2"/>
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D233" s="2"/>
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D234" s="2"/>
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D235" s="2"/>
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D236" s="2"/>
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D237" s="2"/>
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D238" s="2"/>
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D239" s="2"/>
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D240" s="2"/>
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D241" s="2"/>
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D242" s="2"/>
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D243" s="2"/>
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C244" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D244" s="2"/>
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C245" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D245" s="2"/>
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D246" s="2"/>
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C247" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D247" s="2"/>
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D248" s="2"/>
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D249" s="2"/>
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D250" s="2"/>
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D251" s="2"/>
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D252" s="2"/>
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D253" s="2"/>
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C254" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D254" s="2"/>
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C255" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D255" s="2"/>
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D256" s="2"/>
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D257" s="2"/>
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C258" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D258" s="2"/>
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C259" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D259" s="2"/>
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D260" s="2"/>
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D261" s="2"/>
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C262" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D262" s="2"/>
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C263" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D263" s="2"/>
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C264" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D264" s="2"/>
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C265" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D265" s="2"/>
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D266" s="2"/>
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C267" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D267" s="2"/>
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D268" s="2"/>
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C269" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D269" s="2"/>
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C270" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D270" s="2"/>
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D271" s="2"/>
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D272" s="2"/>
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D273" s="2"/>
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C274" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D274" s="2"/>
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C275" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D275" s="2"/>
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C276" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D276" s="2"/>
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C277" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D277" s="2"/>
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C278" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D278" s="2"/>
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C279" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D279" s="2"/>
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C280" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D280" s="2"/>
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D281" s="2"/>
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C282" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D282" s="2"/>
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C283" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D283" s="2"/>
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C284" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D284" s="2"/>
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C285" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D285" s="2"/>
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C286" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D286" s="2"/>
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C287" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D287" s="2"/>
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C288" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D288" s="2"/>
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D289" s="2"/>
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C290" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D290" s="2"/>
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D291" s="2"/>
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C292" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D292" s="2"/>
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C293" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D293" s="2"/>
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C294" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D294" s="2"/>
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C295" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D295" s="2"/>
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C296" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D296" s="2"/>
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C297" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D297" s="2"/>
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C298" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D298" s="2"/>
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C299" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D299" s="2"/>
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C300" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D300" s="2"/>
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D301" s="2"/>
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C302" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D302" s="2"/>
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C303" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D303" s="2"/>
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C304" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D304" s="2"/>
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D305" s="2"/>
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C306" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D306" s="2"/>
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D307" s="2"/>
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C308" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D308" s="2"/>
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C309" t="s" s="2">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D309" s="2"/>
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C310" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D310" s="2"/>
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C311" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D311" s="2"/>
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C312" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D312" s="2"/>
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D313" s="2"/>
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C314" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D314" s="2"/>
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C315" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D315" s="2"/>
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C316" t="s" s="2">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D316" s="2"/>
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C317" t="s" s="2">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D317" s="2"/>
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C318" t="s" s="2">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D318" s="2"/>
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C319" t="s" s="2">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D319" s="2"/>
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C320" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D320" s="2"/>
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D321" s="2"/>
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C322" t="s" s="2">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D322" s="2"/>
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C323" t="s" s="2">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D323" s="2"/>
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C324" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D324" s="2"/>
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C325" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D325" s="2"/>
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C326" t="s" s="2">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D326" s="2"/>
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C327" t="s" s="2">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D327" s="2"/>
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C328" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D328" s="2"/>
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C329" t="s" s="2">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D329" s="2"/>
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C330" t="s" s="2">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D330" s="2"/>
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C331" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D331" s="2"/>
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C332" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D332" s="2"/>
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C333" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D333" s="2"/>
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C334" t="s" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D334" s="2"/>
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C335" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D335" s="2"/>
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C336" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D336" s="2"/>
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D337" s="2"/>
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C338" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D338" s="2"/>
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C339" t="s" s="2">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D339" s="2"/>
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C340" t="s" s="2">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D340" s="2"/>
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C341" t="s" s="2">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D341" s="2"/>
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C342" t="s" s="2">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D342" s="2"/>
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C343" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D343" s="2"/>
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C344" t="s" s="2">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D344" s="2"/>
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C345" t="s" s="2">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D345" s="2"/>
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C346" t="s" s="2">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D346" s="2"/>
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C347" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D347" s="2"/>
     </row>
     <row r="348">
       <c r="A348" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C348" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D348" s="2"/>
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C349" t="s" s="2">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D349" s="2"/>
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C350" t="s" s="2">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D350" s="2"/>
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C351" t="s" s="2">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D351" s="2"/>
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C352" t="s" s="2">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D352" s="2"/>
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D353" s="2"/>
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C354" t="s" s="2">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D354" s="2"/>
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C355" t="s" s="2">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D355" s="2"/>
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C356" t="s" s="2">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D356" s="2"/>
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C357" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D357" s="2"/>
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C358" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D358" s="2"/>
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C359" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D359" s="2"/>
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C360" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D360" s="2"/>
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B361" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C361" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D361" s="2"/>
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C362" t="s" s="2">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D362" s="2"/>
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C363" t="s" s="2">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D363" s="2"/>
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B364" t="s" s="2">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C364" t="s" s="2">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D364" s="2"/>
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B365" t="s" s="2">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C365" t="s" s="2">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D365" s="2"/>
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C366" t="s" s="2">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D366" s="2"/>
     </row>
     <row r="367">
       <c r="A367" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B367" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C367" t="s" s="2">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D367" s="2"/>
     </row>
     <row r="368">
       <c r="A368" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B368" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C368" t="s" s="2">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D368" s="2"/>
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D369" s="2"/>
     </row>
     <row r="370">
       <c r="A370" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C370" t="s" s="2">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D370" s="2"/>
     </row>
     <row r="371">
       <c r="A371" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B371" t="s" s="2">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C371" t="s" s="2">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D371" s="2"/>
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B372" t="s" s="2">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C372" t="s" s="2">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D372" s="2"/>
     </row>
     <row r="373">
       <c r="A373" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B373" t="s" s="2">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C373" t="s" s="2">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D373" s="2"/>
     </row>
     <row r="374">
       <c r="A374" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C374" t="s" s="2">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D374" s="2"/>
     </row>
     <row r="375">
       <c r="A375" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C375" t="s" s="2">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D375" s="2"/>
     </row>
     <row r="376">
       <c r="A376" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C376" t="s" s="2">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D376" s="2"/>
     </row>
     <row r="377">
       <c r="A377" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B377" t="s" s="2">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C377" t="s" s="2">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D377" s="2"/>
     </row>
     <row r="378">
       <c r="A378" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C378" t="s" s="2">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D378" s="2"/>
     </row>
     <row r="379">
       <c r="A379" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B379" t="s" s="2">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C379" t="s" s="2">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D379" s="2"/>
     </row>
     <row r="380">
       <c r="A380" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C380" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D380" s="2"/>
     </row>
     <row r="381">
       <c r="A381" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C381" t="s" s="2">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D381" s="2"/>
     </row>
     <row r="382">
       <c r="A382" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C382" t="s" s="2">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D382" s="2"/>
     </row>
     <row r="383">
       <c r="A383" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C383" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D383" s="2"/>
     </row>
     <row r="384">
       <c r="A384" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C384" t="s" s="2">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D384" s="2"/>
     </row>
     <row r="385">
       <c r="A385" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B385" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C385" t="s" s="2">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D385" s="2"/>
     </row>
     <row r="386">
       <c r="A386" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B386" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C386" t="s" s="2">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D386" s="2"/>
     </row>
     <row r="387">
       <c r="A387" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B387" t="s" s="2">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C387" t="s" s="2">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D387" s="2"/>
     </row>
     <row r="388">
       <c r="A388" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B388" t="s" s="2">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C388" t="s" s="2">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D388" s="2"/>
     </row>
     <row r="389">
       <c r="A389" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B389" t="s" s="2">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C389" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D389" s="2"/>
     </row>
     <row r="390">
       <c r="A390" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B390" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C390" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D390" s="2"/>
     </row>
     <row r="391">
       <c r="A391" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C391" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D391" s="2"/>
     </row>
     <row r="392">
       <c r="A392" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B392" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C392" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D392" s="2"/>
     </row>
     <row r="393">
       <c r="A393" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B393" t="s" s="2">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C393" t="s" s="2">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D393" s="2"/>
     </row>
     <row r="394">
       <c r="A394" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B394" t="s" s="2">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C394" t="s" s="2">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D394" s="2"/>
     </row>
     <row r="395">
       <c r="A395" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B395" t="s" s="2">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C395" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D395" s="2"/>
     </row>
     <row r="396">
       <c r="A396" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C396" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D396" s="2"/>
     </row>
     <row r="397">
       <c r="A397" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C397" t="s" s="2">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D397" s="2"/>
     </row>
     <row r="398">
       <c r="A398" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B398" t="s" s="2">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C398" t="s" s="2">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D398" s="2"/>
     </row>
     <row r="399">
       <c r="A399" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C399" t="s" s="2">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D399" s="2"/>
     </row>
     <row r="400">
       <c r="A400" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B400" t="s" s="2">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C400" t="s" s="2">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D400" s="2"/>
     </row>
     <row r="401">
       <c r="A401" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C401" t="s" s="2">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D401" s="2"/>
     </row>
     <row r="402">
       <c r="A402" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C402" t="s" s="2">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D402" s="2"/>
     </row>
     <row r="403">
       <c r="A403" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B403" t="s" s="2">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C403" t="s" s="2">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D403" s="2"/>
     </row>
     <row r="404">
       <c r="A404" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B404" t="s" s="2">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C404" t="s" s="2">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D404" s="2"/>
     </row>
     <row r="405">
       <c r="A405" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C405" t="s" s="2">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D405" s="2"/>
     </row>
     <row r="406">
       <c r="A406" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B406" t="s" s="2">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C406" t="s" s="2">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D406" s="2"/>
     </row>
     <row r="407">
       <c r="A407" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B407" t="s" s="2">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C407" t="s" s="2">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D407" s="2"/>
     </row>
     <row r="408">
       <c r="A408" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B408" t="s" s="2">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C408" t="s" s="2">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D408" s="2"/>
     </row>
     <row r="409">
       <c r="A409" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C409" t="s" s="2">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D409" s="2"/>
     </row>
     <row r="410">
       <c r="A410" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B410" t="s" s="2">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C410" t="s" s="2">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D410" s="2"/>
     </row>
     <row r="411">
       <c r="A411" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B411" t="s" s="2">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C411" t="s" s="2">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D411" s="2"/>
     </row>
     <row r="412">
       <c r="A412" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C412" t="s" s="2">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D412" s="2"/>
     </row>
     <row r="413">
       <c r="A413" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B413" t="s" s="2">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C413" t="s" s="2">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D413" s="2"/>
     </row>
     <row r="414">
       <c r="A414" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B414" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C414" t="s" s="2">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D414" s="2"/>
     </row>
     <row r="415">
       <c r="A415" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B415" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C415" t="s" s="2">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D415" s="2"/>
     </row>
     <row r="416">
       <c r="A416" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B416" t="s" s="2">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C416" t="s" s="2">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D416" s="2"/>
     </row>
     <row r="417">
       <c r="A417" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C417" t="s" s="2">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D417" s="2"/>
     </row>
     <row r="418">
       <c r="A418" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B418" t="s" s="2">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C418" t="s" s="2">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D418" s="2"/>
     </row>
     <row r="419">
       <c r="A419" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B419" t="s" s="2">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C419" t="s" s="2">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D419" s="2"/>
     </row>
     <row r="420">
       <c r="A420" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B420" t="s" s="2">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C420" t="s" s="2">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D420" s="2"/>
     </row>
     <row r="421">
       <c r="A421" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B421" t="s" s="2">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C421" t="s" s="2">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D421" s="2"/>
     </row>
     <row r="422">
       <c r="A422" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B422" t="s" s="2">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C422" t="s" s="2">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D422" s="2"/>
     </row>
     <row r="423">
       <c r="A423" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B423" t="s" s="2">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C423" t="s" s="2">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D423" s="2"/>
     </row>
     <row r="424">
       <c r="A424" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B424" t="s" s="2">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C424" t="s" s="2">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D424" s="2"/>
     </row>
     <row r="425">
       <c r="A425" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B425" t="s" s="2">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C425" t="s" s="2">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D425" s="2"/>
     </row>
     <row r="426">
       <c r="A426" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B426" t="s" s="2">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C426" t="s" s="2">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D426" s="2"/>
     </row>
     <row r="427">
       <c r="A427" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B427" t="s" s="2">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C427" t="s" s="2">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D427" s="2"/>
     </row>
     <row r="428">
       <c r="A428" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B428" t="s" s="2">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C428" t="s" s="2">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D428" s="2"/>
     </row>
     <row r="429">
       <c r="A429" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B429" t="s" s="2">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C429" t="s" s="2">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D429" s="2"/>
     </row>
     <row r="430">
       <c r="A430" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B430" t="s" s="2">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C430" t="s" s="2">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D430" s="2"/>
     </row>
     <row r="431">
       <c r="A431" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B431" t="s" s="2">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C431" t="s" s="2">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D431" s="2"/>
     </row>
     <row r="432">
       <c r="A432" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B432" t="s" s="2">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C432" t="s" s="2">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D432" s="2"/>
     </row>
     <row r="433">
       <c r="A433" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B433" t="s" s="2">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C433" t="s" s="2">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D433" s="2"/>
     </row>
     <row r="434">
       <c r="A434" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B434" t="s" s="2">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C434" t="s" s="2">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D434" s="2"/>
     </row>
     <row r="435">
       <c r="A435" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B435" t="s" s="2">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C435" t="s" s="2">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D435" s="2"/>
     </row>
     <row r="436">
       <c r="A436" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B436" t="s" s="2">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C436" t="s" s="2">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D436" s="2"/>
     </row>
     <row r="437">
       <c r="A437" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B437" t="s" s="2">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C437" t="s" s="2">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D437" s="2"/>
     </row>
     <row r="438">
       <c r="A438" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B438" t="s" s="2">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C438" t="s" s="2">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D438" s="2"/>
     </row>
     <row r="439">
       <c r="A439" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B439" t="s" s="2">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C439" t="s" s="2">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D439" s="2"/>
     </row>
     <row r="440">
       <c r="A440" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B440" t="s" s="2">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C440" t="s" s="2">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D440" s="2"/>
     </row>
     <row r="441">
       <c r="A441" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B441" t="s" s="2">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C441" t="s" s="2">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D441" s="2"/>
     </row>
     <row r="442">
       <c r="A442" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B442" t="s" s="2">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C442" t="s" s="2">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D442" s="2"/>
     </row>
     <row r="443">
       <c r="A443" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B443" t="s" s="2">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C443" t="s" s="2">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D443" s="2"/>
     </row>
     <row r="444">
       <c r="A444" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B444" t="s" s="2">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C444" t="s" s="2">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D444" s="2"/>
     </row>
     <row r="445">
       <c r="A445" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B445" t="s" s="2">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C445" t="s" s="2">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D445" s="2"/>
     </row>
